--- a/analysis/UKB Demo and Health Toplines 201904013.xlsx
+++ b/analysis/UKB Demo and Health Toplines 201904013.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/valeriebradley/github/mini-project-1/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E03A958C-06A6-BC47-ADB7-5A3B62C03E09}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A085C17-D96F-0647-9DA8-B275CDB975F5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
+    <sheet name="With HSE 2011" sheetId="4" r:id="rId1"/>
     <sheet name="NEW" sheetId="3" r:id="rId2"/>
     <sheet name="OLD" sheetId="2" r:id="rId3"/>
   </sheets>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="144">
   <si>
     <t>var</t>
   </si>
@@ -448,6 +448,12 @@
   </si>
   <si>
     <t>HSE 2011</t>
+  </si>
+  <si>
+    <t>demo_ethnicity</t>
+  </si>
+  <si>
+    <t>08-Black Caribbean</t>
   </si>
 </sst>
 </file>
@@ -1494,10 +1500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6466469-9A15-4541-98BB-6F3D3C68926F}">
-  <dimension ref="B1:R163"/>
+  <dimension ref="B1:Q163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3:R3"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1511,12 +1517,11 @@
     <col min="9" max="13" width="11.83203125" style="17" customWidth="1"/>
     <col min="14" max="14" width="10.83203125" style="18"/>
     <col min="15" max="16" width="10.83203125" style="9"/>
-    <col min="17" max="17" width="11.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.83203125" style="19"/>
-    <col min="19" max="16384" width="10.83203125" style="1"/>
+    <col min="17" max="17" width="10.83203125" style="19"/>
+    <col min="18" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D1" s="8"/>
       <c r="H1" s="8"/>
       <c r="I1" s="9"/>
@@ -1525,9 +1530,9 @@
       <c r="L1" s="9"/>
       <c r="M1" s="9"/>
       <c r="N1" s="9"/>
-      <c r="R1" s="9"/>
-    </row>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q1" s="9"/>
+    </row>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D2" s="40" t="s">
         <v>132</v>
       </c>
@@ -1547,10 +1552,9 @@
       </c>
       <c r="O2" s="43"/>
       <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="44"/>
-    </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q2" s="44"/>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1567,10 +1571,10 @@
         <v>136</v>
       </c>
       <c r="G3" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="H3" s="11" t="s">
         <v>137</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>141</v>
       </c>
       <c r="I3" s="10" t="s">
         <v>135</v>
@@ -1582,28 +1586,25 @@
         <v>136</v>
       </c>
       <c r="L3" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="M3" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="N3" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="P3" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="N3" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="O3" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="P3" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q3" s="10" t="s">
+      <c r="Q3" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="R3" s="11" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
@@ -1616,8 +1617,11 @@
       <c r="E4" s="8">
         <v>51803</v>
       </c>
+      <c r="F4" s="8">
+        <v>205389</v>
+      </c>
       <c r="G4" s="8">
-        <v>205389</v>
+        <v>559.05629862828005</v>
       </c>
       <c r="H4" s="16">
         <v>429.978358319096</v>
@@ -1628,8 +1632,11 @@
       <c r="J4" s="17">
         <v>0.103082341704143</v>
       </c>
+      <c r="K4" s="17">
+        <v>0.19511947195221099</v>
+      </c>
       <c r="L4" s="17">
-        <v>0.19511947195221099</v>
+        <v>0.204827129838414</v>
       </c>
       <c r="M4" s="17">
         <v>0.18356690895865499</v>
@@ -1637,14 +1644,17 @@
       <c r="N4" s="18">
         <v>1.0028800657456399E-2</v>
       </c>
-      <c r="Q4" s="9">
+      <c r="O4" s="9">
         <v>-8.20083295906118E-2</v>
       </c>
-      <c r="R4" s="19">
+      <c r="P4" s="9">
+        <v>-9.1715987476814906E-2</v>
+      </c>
+      <c r="Q4" s="19">
         <v>-7.0455766597055505E-2</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1657,8 +1667,11 @@
       <c r="E5" s="8">
         <v>66083</v>
       </c>
+      <c r="F5" s="8">
+        <v>205093</v>
+      </c>
       <c r="G5" s="8">
-        <v>205093</v>
+        <v>505.10092197445402</v>
       </c>
       <c r="H5" s="16">
         <v>414.20725341322998</v>
@@ -1669,8 +1682,11 @@
       <c r="J5" s="17">
         <v>0.13149799020973499</v>
       </c>
+      <c r="K5" s="17">
+        <v>0.19483827206469101</v>
+      </c>
       <c r="L5" s="17">
-        <v>0.19483827206469101</v>
+        <v>0.185058950915343</v>
       </c>
       <c r="M5" s="17">
         <v>0.17683388874398601</v>
@@ -1678,14 +1694,17 @@
       <c r="N5" s="18">
         <v>2.47388259905186E-2</v>
       </c>
-      <c r="Q5" s="9">
+      <c r="O5" s="9">
         <v>-3.8601455864438097E-2</v>
       </c>
-      <c r="R5" s="19">
+      <c r="P5" s="9">
+        <v>-2.8822134715090299E-2</v>
+      </c>
+      <c r="Q5" s="19">
         <v>-2.0597072543733101E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>2</v>
       </c>
@@ -1698,8 +1717,11 @@
       <c r="E6" s="8">
         <v>76337</v>
       </c>
+      <c r="F6" s="8">
+        <v>179955</v>
+      </c>
       <c r="G6" s="8">
-        <v>179955</v>
+        <v>461.79650837671602</v>
       </c>
       <c r="H6" s="16">
         <v>449.21409831584901</v>
@@ -1710,8 +1732,11 @@
       <c r="J6" s="17">
         <v>0.151902336132447</v>
       </c>
+      <c r="K6" s="17">
+        <v>0.170957181617127</v>
+      </c>
       <c r="L6" s="17">
-        <v>0.170957181617127</v>
+        <v>0.16919307342085099</v>
       </c>
       <c r="M6" s="17">
         <v>0.19177905560375599</v>
@@ -1719,14 +1744,17 @@
       <c r="N6" s="18">
         <v>3.6022475192729803E-2</v>
       </c>
-      <c r="Q6" s="9">
+      <c r="O6" s="9">
         <v>1.69676297080496E-2</v>
       </c>
-      <c r="R6" s="19">
+      <c r="P6" s="9">
+        <v>1.8731737904325599E-2</v>
+      </c>
+      <c r="Q6" s="19">
         <v>-3.8542442785790801E-3</v>
       </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
         <v>2</v>
       </c>
@@ -1739,8 +1767,11 @@
       <c r="E7" s="8">
         <v>90824</v>
       </c>
+      <c r="F7" s="8">
+        <v>158954</v>
+      </c>
       <c r="G7" s="8">
-        <v>158954</v>
+        <v>383.551321820108</v>
       </c>
       <c r="H7" s="16">
         <v>352.009413543081</v>
@@ -1751,8 +1782,11 @@
       <c r="J7" s="17">
         <v>0.18072989214788901</v>
       </c>
+      <c r="K7" s="17">
+        <v>0.15100623959750401</v>
+      </c>
       <c r="L7" s="17">
-        <v>0.15100623959750401</v>
+        <v>0.14052559033303899</v>
       </c>
       <c r="M7" s="17">
         <v>0.150280307643992</v>
@@ -1760,14 +1794,17 @@
       <c r="N7" s="18">
         <v>4.1836085445511199E-2</v>
       </c>
-      <c r="Q7" s="9">
+      <c r="O7" s="9">
         <v>7.1559737995895698E-2</v>
       </c>
-      <c r="R7" s="19">
+      <c r="P7" s="9">
+        <v>8.2040387260360906E-2</v>
+      </c>
+      <c r="Q7" s="19">
         <v>7.2285669949407994E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
         <v>2</v>
       </c>
@@ -1780,8 +1817,11 @@
       <c r="E8" s="8">
         <v>121484</v>
       </c>
+      <c r="F8" s="8">
+        <v>169477</v>
+      </c>
       <c r="G8" s="8">
-        <v>169477</v>
+        <v>443.90785898828898</v>
       </c>
       <c r="H8" s="16">
         <v>350.752962364756</v>
@@ -1792,8 +1832,11 @@
       <c r="J8" s="17">
         <v>0.241739960998129</v>
       </c>
+      <c r="K8" s="17">
+        <v>0.161003085598766</v>
+      </c>
       <c r="L8" s="17">
-        <v>0.161003085598766</v>
+        <v>0.162639027397387</v>
       </c>
       <c r="M8" s="17">
         <v>0.14974390190495801</v>
@@ -1801,14 +1844,17 @@
       <c r="N8" s="18">
         <v>-2.2455284675061901E-2</v>
       </c>
-      <c r="Q8" s="9">
+      <c r="O8" s="9">
         <v>5.82815907243018E-2</v>
       </c>
-      <c r="R8" s="19">
+      <c r="P8" s="9">
+        <v>5.6645648925680303E-2</v>
+      </c>
+      <c r="Q8" s="19">
         <v>6.9540774418109505E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
@@ -1821,8 +1867,11 @@
       <c r="E9" s="8">
         <v>96009</v>
       </c>
+      <c r="F9" s="8">
+        <v>133764</v>
+      </c>
       <c r="G9" s="8">
-        <v>133764</v>
+        <v>375.99260924331202</v>
       </c>
       <c r="H9" s="16">
         <v>346.19014276698101</v>
@@ -1833,8 +1882,11 @@
       <c r="J9" s="17">
         <v>0.19104747880765699</v>
       </c>
+      <c r="K9" s="17">
+        <v>0.12707574916969999</v>
+      </c>
       <c r="L9" s="17">
-        <v>0.12707574916969999</v>
+        <v>0.13775622809496499</v>
       </c>
       <c r="M9" s="17">
         <v>0.147795937144653</v>
@@ -1842,14 +1894,17 @@
       <c r="N9" s="18">
         <v>-9.0170902611154E-2</v>
       </c>
-      <c r="Q9" s="9">
+      <c r="O9" s="9">
         <v>-2.61991729731973E-2</v>
       </c>
-      <c r="R9" s="19">
+      <c r="P9" s="9">
+        <v>-3.6879651898461603E-2</v>
+      </c>
+      <c r="Q9" s="19">
         <v>-4.6919360948149899E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
@@ -1872,7 +1927,7 @@
         <v>-9.7973687937065193E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -1895,7 +1950,7 @@
         <v>9.7973687937065193E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
         <v>10</v>
       </c>
@@ -1918,7 +1973,7 @@
         <v>-0.11615511795680999</v>
       </c>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
         <v>10</v>
       </c>
@@ -1941,7 +1996,7 @@
         <v>0.11615511795680999</v>
       </c>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
         <v>11</v>
       </c>
@@ -1964,7 +2019,7 @@
         <v>-1.82085444231402E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
         <v>11</v>
       </c>
@@ -1987,7 +2042,7 @@
         <v>1.8208544423140301E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B16" s="4" t="s">
         <v>12</v>
       </c>
@@ -2000,8 +2055,11 @@
       <c r="E16" s="8">
         <v>186983</v>
       </c>
+      <c r="F16" s="8">
+        <v>297687</v>
+      </c>
       <c r="G16" s="8">
-        <v>297687</v>
+        <v>633.95146084276803</v>
       </c>
       <c r="H16" s="16">
         <v>705.04115418210301</v>
@@ -2012,8 +2070,11 @@
       <c r="J16" s="17">
         <v>0.37207585465833598</v>
       </c>
+      <c r="K16" s="17">
+        <v>0.28280253687898499</v>
+      </c>
       <c r="L16" s="17">
-        <v>0.28280253687898499</v>
+        <v>0.232267230509521</v>
       </c>
       <c r="M16" s="17">
         <v>0.30099706847525598</v>
@@ -2021,14 +2082,17 @@
       <c r="N16" s="18">
         <v>0.115291135450885</v>
       </c>
-      <c r="Q16" s="9">
+      <c r="O16" s="9">
         <v>0.204564453230235</v>
       </c>
-      <c r="R16" s="19">
+      <c r="P16" s="9">
+        <v>0.25509975959969999</v>
+      </c>
+      <c r="Q16" s="19">
         <v>0.18636992163396501</v>
       </c>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B17" s="4" t="s">
         <v>12</v>
       </c>
@@ -2041,8 +2105,11 @@
       <c r="E17" s="8">
         <v>55326</v>
       </c>
+      <c r="F17" s="8">
+        <v>103118</v>
+      </c>
       <c r="G17" s="8">
-        <v>103118</v>
+        <v>704.73688385696903</v>
       </c>
       <c r="H17" s="16">
         <v>603.41720454383801</v>
@@ -2053,8 +2120,11 @@
       <c r="J17" s="17">
         <v>0.11009272893700001</v>
       </c>
+      <c r="K17" s="17">
+        <v>9.7962060815175694E-2</v>
+      </c>
       <c r="L17" s="17">
-        <v>9.7962060815175694E-2</v>
+        <v>0.25820160432119499</v>
       </c>
       <c r="M17" s="17">
         <v>0.25761164232452299</v>
@@ -2062,14 +2132,17 @@
       <c r="N17" s="18">
         <v>1.90499139167946E-2</v>
       </c>
-      <c r="Q17" s="9">
+      <c r="O17" s="9">
         <v>3.1180582038618902E-2</v>
       </c>
-      <c r="R17" s="19">
+      <c r="P17" s="9">
+        <v>-0.12905896146740001</v>
+      </c>
+      <c r="Q17" s="19">
         <v>-0.12846899947072901</v>
       </c>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B18" s="4" t="s">
         <v>12</v>
       </c>
@@ -2082,8 +2155,11 @@
       <c r="E18" s="8">
         <v>132087</v>
       </c>
+      <c r="F18" s="8">
+        <v>306289</v>
+      </c>
       <c r="G18" s="8">
-        <v>306289</v>
+        <v>791.12080885326304</v>
       </c>
       <c r="H18" s="16">
         <v>594.61818415694597</v>
@@ -2094,8 +2170,11 @@
       <c r="J18" s="17">
         <v>0.262838779002666</v>
       </c>
+      <c r="K18" s="17">
+        <v>0.29097443361022701</v>
+      </c>
       <c r="L18" s="17">
-        <v>0.29097443361022701</v>
+        <v>0.28985095960899299</v>
       </c>
       <c r="M18" s="17">
         <v>0.25385515332214598</v>
@@ -2103,14 +2182,17 @@
       <c r="N18" s="18">
         <v>-1.8381834362906399E-2</v>
       </c>
-      <c r="Q18" s="9">
+      <c r="O18" s="9">
         <v>-4.6517488970466599E-2</v>
       </c>
-      <c r="R18" s="19">
+      <c r="P18" s="9">
+        <v>-4.5394014969232899E-2</v>
+      </c>
+      <c r="Q18" s="19">
         <v>-9.3982086823859202E-3</v>
       </c>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B19" s="4" t="s">
         <v>12</v>
       </c>
@@ -2123,8 +2205,11 @@
       <c r="E19" s="8">
         <v>32730</v>
       </c>
+      <c r="F19" s="8">
+        <v>108036</v>
+      </c>
       <c r="G19" s="8">
-        <v>108036</v>
+        <v>31.257386968665401</v>
       </c>
       <c r="H19" s="16">
         <v>17.772847769143599</v>
@@ -2135,8 +2220,11 @@
       <c r="J19" s="17">
         <v>6.5129143948740406E-2</v>
       </c>
+      <c r="K19" s="17">
+        <v>0.102634158946336</v>
+      </c>
       <c r="L19" s="17">
-        <v>0.102634158946336</v>
+        <v>1.14520860864093E-2</v>
       </c>
       <c r="M19" s="17">
         <v>7.5876068300936303E-3</v>
@@ -2144,14 +2232,17 @@
       <c r="N19" s="18">
         <v>-1.0800170058523399E-2</v>
       </c>
-      <c r="Q19" s="9">
+      <c r="O19" s="9">
         <v>-4.8305185056119401E-2</v>
       </c>
-      <c r="R19" s="19">
+      <c r="P19" s="9">
+        <v>4.2876887803807801E-2</v>
+      </c>
+      <c r="Q19" s="19">
         <v>4.6741367060123398E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:18" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:17" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="20" t="s">
         <v>12</v>
       </c>
@@ -2164,9 +2255,11 @@
       <c r="E20" s="23">
         <v>85276</v>
       </c>
-      <c r="F20" s="23"/>
+      <c r="F20" s="23">
+        <v>237377</v>
+      </c>
       <c r="G20" s="23">
-        <v>237377</v>
+        <v>563.05806405373903</v>
       </c>
       <c r="H20" s="24">
         <v>417.94887910182803</v>
@@ -2177,9 +2270,11 @@
       <c r="J20" s="25">
         <v>0.16968997492736901</v>
       </c>
-      <c r="K20" s="25"/>
+      <c r="K20" s="25">
+        <v>0.22550805979677599</v>
+      </c>
       <c r="L20" s="25">
-        <v>0.22550805979677599</v>
+        <v>0.20629329725016601</v>
       </c>
       <c r="M20" s="25">
         <v>0.17843126835355799</v>
@@ -2187,16 +2282,17 @@
       <c r="N20" s="26">
         <v>-0.104532706845055</v>
       </c>
-      <c r="O20" s="27"/>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="27">
+      <c r="O20" s="27">
         <v>-0.16035079171446201</v>
       </c>
-      <c r="R20" s="28">
+      <c r="P20" s="27">
+        <v>-0.14113602916785201</v>
+      </c>
+      <c r="Q20" s="28">
         <v>-0.113274000271244</v>
       </c>
     </row>
-    <row r="21" spans="2:18" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:17" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="30" t="s">
         <v>12</v>
       </c>
@@ -2209,9 +2305,11 @@
       <c r="E21" s="33">
         <v>10138</v>
       </c>
-      <c r="F21" s="33"/>
+      <c r="F21" s="33">
+        <v>125</v>
+      </c>
       <c r="G21" s="33">
-        <v>125</v>
+        <v>5.2809144557547203</v>
       </c>
       <c r="H21" s="34">
         <v>3.5539589691357101</v>
@@ -2222,9 +2320,11 @@
       <c r="J21" s="35">
         <v>2.0173518525888501E-2</v>
       </c>
-      <c r="K21" s="35"/>
+      <c r="K21" s="35">
+        <v>1.18749952500019E-4</v>
+      </c>
       <c r="L21" s="35">
-        <v>1.18749952500019E-4</v>
+        <v>1.9348222237160499E-3</v>
       </c>
       <c r="M21" s="35">
         <v>1.5172606944230799E-3</v>
@@ -2232,16 +2332,17 @@
       <c r="N21" s="36">
         <v>-6.2633810119435199E-4</v>
       </c>
-      <c r="O21" s="37"/>
-      <c r="P21" s="37"/>
-      <c r="Q21" s="37">
+      <c r="O21" s="37">
         <v>1.94284304721941E-2</v>
       </c>
-      <c r="R21" s="38">
+      <c r="P21" s="37">
+        <v>1.76123582009781E-2</v>
+      </c>
+      <c r="Q21" s="38">
         <v>1.8029919730271099E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B22" s="4" t="s">
         <v>19</v>
       </c>
@@ -2264,7 +2365,7 @@
         <v>0.11615511795680999</v>
       </c>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B23" s="4" t="s">
         <v>19</v>
       </c>
@@ -2287,7 +2388,7 @@
         <v>1.90499139167946E-2</v>
       </c>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B24" s="4" t="s">
         <v>19</v>
       </c>
@@ -2310,7 +2411,7 @@
         <v>-7.3959149005264103E-3</v>
       </c>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B25" s="4" t="s">
         <v>19</v>
       </c>
@@ -2333,7 +2434,7 @@
         <v>-1.09859194623801E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B26" s="4" t="s">
         <v>19</v>
       </c>
@@ -2356,7 +2457,7 @@
         <v>-1.0800170058523399E-2</v>
       </c>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B27" s="4" t="s">
         <v>19</v>
       </c>
@@ -2379,7 +2480,7 @@
         <v>-8.6398250592516896E-4</v>
       </c>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B28" s="4" t="s">
         <v>19</v>
       </c>
@@ -2402,7 +2503,7 @@
         <v>-0.104532706845055</v>
       </c>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B29" s="4" t="s">
         <v>19</v>
       </c>
@@ -2425,7 +2526,7 @@
         <v>-6.2633810119435199E-4</v>
       </c>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B30" s="4" t="s">
         <v>26</v>
       </c>
@@ -2448,7 +2549,7 @@
         <v>-9.6684946691218299E-2</v>
       </c>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B31" s="4" t="s">
         <v>26</v>
       </c>
@@ -2471,7 +2572,7 @@
         <v>9.6684946691218299E-2</v>
       </c>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B32" s="4" t="s">
         <v>27</v>
       </c>
@@ -2494,7 +2595,7 @@
         <v>-8.5878591394071793E-2</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B33" s="4" t="s">
         <v>27</v>
       </c>
@@ -2517,7 +2618,7 @@
         <v>8.5878591394071793E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B34" s="4" t="s">
         <v>28</v>
       </c>
@@ -2540,7 +2641,7 @@
         <v>-1.8875842403895698E-2</v>
       </c>
     </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B35" s="4" t="s">
         <v>28</v>
       </c>
@@ -2563,7 +2664,7 @@
         <v>1.8875842403895799E-2</v>
       </c>
     </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B36" s="4" t="s">
         <v>29</v>
       </c>
@@ -2576,8 +2677,11 @@
       <c r="E36" s="8">
         <v>482157</v>
       </c>
+      <c r="F36" s="8">
+        <v>989132</v>
+      </c>
       <c r="G36" s="8">
-        <v>989132</v>
+        <v>2563.68704727459</v>
       </c>
       <c r="H36" s="16">
         <v>2189.8948898386602</v>
@@ -2588,8 +2692,11 @@
       <c r="J36" s="17">
         <v>0.95944004457356602</v>
       </c>
+      <c r="K36" s="17">
+        <v>0.93967502412999004</v>
+      </c>
       <c r="L36" s="17">
-        <v>0.93967502412999004</v>
+        <v>0.93928404167095103</v>
       </c>
       <c r="M36" s="17">
         <v>0.93491271849945201</v>
@@ -2597,14 +2704,17 @@
       <c r="N36" s="18">
         <v>2.55597210477716E-2</v>
       </c>
-      <c r="Q36" s="9">
+      <c r="O36" s="9">
         <v>4.5324741491347499E-2</v>
       </c>
-      <c r="R36" s="19">
+      <c r="P36" s="9">
+        <v>4.5715723950386498E-2</v>
+      </c>
+      <c r="Q36" s="19">
         <v>5.0087047121886101E-2</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="4" t="s">
         <v>29</v>
       </c>
@@ -2617,8 +2727,11 @@
       <c r="E37" s="8">
         <v>20383</v>
       </c>
+      <c r="F37" s="8">
+        <v>63500</v>
+      </c>
       <c r="G37" s="8">
-        <v>63500</v>
+        <v>165.71847175657101</v>
       </c>
       <c r="H37" s="16">
         <v>152.45733888433</v>
@@ -2629,8 +2742,11 @@
       <c r="J37" s="17">
         <v>4.0559955426433703E-2</v>
       </c>
+      <c r="K37" s="17">
+        <v>6.0324975870009699E-2</v>
+      </c>
       <c r="L37" s="17">
-        <v>6.0324975870009699E-2</v>
+        <v>6.0715958329048497E-2</v>
       </c>
       <c r="M37" s="17">
         <v>6.5087281500548197E-2</v>
@@ -2638,14 +2754,17 @@
       <c r="N37" s="18">
         <v>-2.55597210477716E-2</v>
       </c>
-      <c r="Q37" s="9">
+      <c r="O37" s="9">
         <v>-4.5324741491347499E-2</v>
       </c>
-      <c r="R37" s="19">
+      <c r="P37" s="9">
+        <v>-4.5715723950386401E-2</v>
+      </c>
+      <c r="Q37" s="19">
         <v>-5.0087047121885997E-2</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B38" s="4" t="s">
         <v>30</v>
       </c>
@@ -2658,8 +2777,11 @@
       <c r="E38" s="8">
         <v>215366</v>
       </c>
+      <c r="F38" s="8">
+        <v>317427</v>
+      </c>
       <c r="G38" s="8">
-        <v>317427</v>
+        <v>974.49926827022102</v>
       </c>
       <c r="H38" s="16">
         <v>797.04596311067098</v>
@@ -2670,8 +2792,11 @@
       <c r="J38" s="17">
         <v>0.428554940900227</v>
       </c>
+      <c r="K38" s="17">
+        <v>0.30155552937778801</v>
+      </c>
       <c r="L38" s="17">
-        <v>0.30155552937778801</v>
+        <v>0.35703718684357799</v>
       </c>
       <c r="M38" s="17">
         <v>0.34027587880973997</v>
@@ -2679,14 +2804,17 @@
       <c r="N38" s="18">
         <v>-0.11214374697532201</v>
       </c>
-      <c r="Q38" s="9">
+      <c r="O38" s="9">
         <v>1.4855664547116801E-2</v>
       </c>
-      <c r="R38" s="19">
+      <c r="P38" s="9">
+        <v>-4.0625992918672901E-2</v>
+      </c>
+      <c r="Q38" s="19">
         <v>-2.3864684884835299E-2</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B39" s="4" t="s">
         <v>30</v>
       </c>
@@ -2699,8 +2827,11 @@
       <c r="E39" s="8">
         <v>287174</v>
       </c>
+      <c r="F39" s="8">
+        <v>735205</v>
+      </c>
       <c r="G39" s="8">
-        <v>735205</v>
+        <v>1754.9062507609401</v>
       </c>
       <c r="H39" s="16">
         <v>1545.30626561232</v>
@@ -2711,8 +2842,11 @@
       <c r="J39" s="17">
         <v>0.57144505909977295</v>
       </c>
+      <c r="K39" s="17">
+        <v>0.69844447062221204</v>
+      </c>
       <c r="L39" s="17">
-        <v>0.69844447062221204</v>
+        <v>0.64296281315642201</v>
       </c>
       <c r="M39" s="17">
         <v>0.65972412119026003</v>
@@ -2720,14 +2854,17 @@
       <c r="N39" s="18">
         <v>0.11214374697532201</v>
       </c>
-      <c r="Q39" s="9">
+      <c r="O39" s="9">
         <v>-1.4855664547116801E-2</v>
       </c>
-      <c r="R39" s="19">
+      <c r="P39" s="9">
+        <v>4.0625992918672998E-2</v>
+      </c>
+      <c r="Q39" s="19">
         <v>2.3864684884835199E-2</v>
       </c>
     </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B40" s="4" t="s">
         <v>31</v>
       </c>
@@ -2740,6 +2877,9 @@
       <c r="E40" s="8">
         <v>476965</v>
       </c>
+      <c r="G40" s="8">
+        <v>2565.8187359574299</v>
+      </c>
       <c r="H40" s="16">
         <v>2184.3808354960001</v>
       </c>
@@ -2749,17 +2889,23 @@
       <c r="J40" s="17">
         <v>0.94910852867433404</v>
       </c>
+      <c r="L40" s="17">
+        <v>0.94006505008760999</v>
+      </c>
       <c r="M40" s="17">
         <v>0.93255865138902805</v>
       </c>
       <c r="N40" s="18">
         <v>9.2194055174732404E-4</v>
       </c>
-      <c r="R40" s="19">
+      <c r="P40" s="9">
+        <v>9.9654191384713799E-3</v>
+      </c>
+      <c r="Q40" s="19">
         <v>1.74718178370535E-2</v>
       </c>
     </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B41" s="4" t="s">
         <v>31</v>
       </c>
@@ -2772,6 +2918,9 @@
       <c r="E41" s="8">
         <v>25575</v>
       </c>
+      <c r="G41" s="8">
+        <v>163.58678307373199</v>
+      </c>
       <c r="H41" s="16">
         <v>157.971393226994</v>
       </c>
@@ -2781,17 +2930,23 @@
       <c r="J41" s="17">
         <v>5.0891471325665599E-2</v>
       </c>
+      <c r="L41" s="17">
+        <v>5.9934949912389603E-2</v>
+      </c>
       <c r="M41" s="17">
         <v>6.7441348610971896E-2</v>
       </c>
       <c r="N41" s="18">
         <v>-9.2194055174727601E-4</v>
       </c>
-      <c r="R41" s="19">
+      <c r="P41" s="9">
+        <v>-9.9654191384712792E-3</v>
+      </c>
+      <c r="Q41" s="19">
         <v>-1.74718178370535E-2</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B42" s="4" t="s">
         <v>32</v>
       </c>
@@ -2804,8 +2959,11 @@
       <c r="E42" s="8">
         <v>325084</v>
       </c>
+      <c r="F42" s="8">
+        <v>863115</v>
+      </c>
       <c r="G42" s="8">
-        <v>863115</v>
+        <v>2184.7158970832102</v>
       </c>
       <c r="H42" s="16">
         <v>1938.1496465897801</v>
@@ -2816,8 +2974,11 @@
       <c r="J42" s="17">
         <v>0.64688184025152196</v>
       </c>
+      <c r="K42" s="17">
+        <v>0.81995892201643095</v>
+      </c>
       <c r="L42" s="17">
-        <v>0.81995892201643095</v>
+        <v>0.80043653530044201</v>
       </c>
       <c r="M42" s="17">
         <v>0.82743731827489497</v>
@@ -2825,14 +2986,17 @@
       <c r="N42" s="18">
         <v>7.2941906994528405E-2</v>
       </c>
-      <c r="Q42" s="9">
+      <c r="O42" s="9">
         <v>-0.10013517477038</v>
       </c>
-      <c r="R42" s="19">
+      <c r="P42" s="9">
+        <v>-8.0612788054391801E-2</v>
+      </c>
+      <c r="Q42" s="19">
         <v>-0.107613571028845</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B43" s="4" t="s">
         <v>32</v>
       </c>
@@ -2845,8 +3009,11 @@
       <c r="E43" s="8">
         <v>177456</v>
       </c>
+      <c r="F43" s="8">
+        <v>189517</v>
+      </c>
       <c r="G43" s="8">
-        <v>189517</v>
+        <v>544.68962194795199</v>
       </c>
       <c r="H43" s="16">
         <v>404.20258213321603</v>
@@ -2857,8 +3024,11 @@
       <c r="J43" s="17">
         <v>0.35311815974847799</v>
       </c>
+      <c r="K43" s="17">
+        <v>0.180041077983569</v>
+      </c>
       <c r="L43" s="17">
-        <v>0.180041077983569</v>
+        <v>0.19956346469955799</v>
       </c>
       <c r="M43" s="17">
         <v>0.172562681725105</v>
@@ -2866,14 +3036,17 @@
       <c r="N43" s="18">
         <v>-7.2941906994528405E-2</v>
       </c>
-      <c r="Q43" s="9">
+      <c r="O43" s="9">
         <v>0.100135174770381</v>
       </c>
-      <c r="R43" s="19">
+      <c r="P43" s="9">
+        <v>8.0612788054391704E-2</v>
+      </c>
+      <c r="Q43" s="19">
         <v>0.107613571028845</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B44" s="4" t="s">
         <v>33</v>
       </c>
@@ -2886,8 +3059,11 @@
       <c r="E44" s="8">
         <v>497984</v>
       </c>
+      <c r="F44" s="8">
+        <v>1044752</v>
+      </c>
       <c r="G44" s="8">
-        <v>1044752</v>
+        <v>2718.5095461405099</v>
       </c>
       <c r="H44" s="16">
         <v>2322.6268516894802</v>
@@ -2898,8 +3074,11 @@
       <c r="J44" s="17">
         <v>0.99093405500059695</v>
       </c>
+      <c r="K44" s="17">
+        <v>0.99251400299439896</v>
+      </c>
       <c r="L44" s="17">
-        <v>0.99251400299439896</v>
+        <v>0.99600793183179304</v>
       </c>
       <c r="M44" s="17">
         <v>0.99157881688687599</v>
@@ -2907,14 +3086,17 @@
       <c r="N44" s="18">
         <v>-1.7154734602603499E-3</v>
       </c>
-      <c r="Q44" s="9">
+      <c r="O44" s="9">
         <v>-3.2954214540622498E-3</v>
       </c>
-      <c r="R44" s="19">
+      <c r="P44" s="9">
+        <v>-6.7893502914565503E-3</v>
+      </c>
+      <c r="Q44" s="19">
         <v>-2.3602353465389499E-3</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B45" s="4" t="s">
         <v>33</v>
       </c>
@@ -2927,8 +3109,11 @@
       <c r="E45" s="8">
         <v>4556</v>
       </c>
+      <c r="F45" s="8">
+        <v>7880</v>
+      </c>
       <c r="G45" s="8">
-        <v>7880</v>
+        <v>10.8959728906524</v>
       </c>
       <c r="H45" s="16">
         <v>19.725377033511499</v>
@@ -2939,8 +3124,11 @@
       <c r="J45" s="17">
         <v>9.0659449994030302E-3</v>
       </c>
+      <c r="K45" s="17">
+        <v>7.4859970056012004E-3</v>
+      </c>
       <c r="L45" s="17">
-        <v>7.4859970056012004E-3</v>
+        <v>3.9920681682068396E-3</v>
       </c>
       <c r="M45" s="17">
         <v>8.4211831131244304E-3</v>
@@ -2948,14 +3136,17 @@
       <c r="N45" s="18">
         <v>1.7154734602604E-3</v>
       </c>
-      <c r="Q45" s="9">
+      <c r="O45" s="9">
         <v>3.2954214540622299E-3</v>
       </c>
-      <c r="R45" s="19">
+      <c r="P45" s="9">
+        <v>6.7893502914565902E-3</v>
+      </c>
+      <c r="Q45" s="19">
         <v>2.3602353465390002E-3</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B46" s="4" t="s">
         <v>34</v>
       </c>
@@ -2968,8 +3159,11 @@
       <c r="E46" s="8">
         <v>493031</v>
       </c>
+      <c r="F46" s="8">
+        <v>1018343</v>
+      </c>
       <c r="G46" s="8">
-        <v>1018343</v>
+        <v>2721.7673826878899</v>
       </c>
       <c r="H46" s="16">
         <v>2303.2761574249898</v>
@@ -2980,8 +3174,11 @@
       <c r="J46" s="17">
         <v>0.98107812313447695</v>
       </c>
+      <c r="K46" s="17">
+        <v>0.96742546302981502</v>
+      </c>
       <c r="L46" s="17">
-        <v>0.96742546302981502</v>
+        <v>0.99720153847055504</v>
       </c>
       <c r="M46" s="17">
         <v>0.98331759381922401</v>
@@ -2989,14 +3186,17 @@
       <c r="N46" s="18">
         <v>6.0779261787936604E-3</v>
       </c>
-      <c r="Q46" s="9">
+      <c r="O46" s="9">
         <v>1.9730586283455701E-2</v>
       </c>
-      <c r="R46" s="19">
+      <c r="P46" s="9">
+        <v>-1.00454891572841E-2</v>
+      </c>
+      <c r="Q46" s="19">
         <v>3.8384554940462702E-3</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B47" s="4" t="s">
         <v>34</v>
       </c>
@@ -3009,8 +3209,11 @@
       <c r="E47" s="8">
         <v>9509</v>
       </c>
+      <c r="F47" s="8">
+        <v>34289</v>
+      </c>
       <c r="G47" s="8">
-        <v>34289</v>
+        <v>7.6381363432646401</v>
       </c>
       <c r="H47" s="16">
         <v>39.076071298002297</v>
@@ -3021,8 +3224,11 @@
       <c r="J47" s="17">
         <v>1.8921876865523098E-2</v>
       </c>
+      <c r="K47" s="17">
+        <v>3.2574536970185197E-2</v>
+      </c>
       <c r="L47" s="17">
-        <v>3.2574536970185197E-2</v>
+        <v>2.7984615294454002E-3</v>
       </c>
       <c r="M47" s="17">
         <v>1.6682406180775801E-2</v>
@@ -3030,14 +3236,17 @@
       <c r="N47" s="18">
         <v>-6.0779261787936604E-3</v>
       </c>
-      <c r="Q47" s="9">
+      <c r="O47" s="9">
         <v>-1.9730586283455701E-2</v>
       </c>
-      <c r="R47" s="19">
+      <c r="P47" s="9">
+        <v>1.00454891572841E-2</v>
+      </c>
+      <c r="Q47" s="19">
         <v>-3.8384554940462802E-3</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B48" s="4" t="s">
         <v>35</v>
       </c>
@@ -3050,6 +3259,9 @@
       <c r="E48" s="8">
         <v>484152</v>
       </c>
+      <c r="G48" s="8">
+        <v>2729.4055190311601</v>
+      </c>
       <c r="H48" s="16">
         <v>2342.3522287229898</v>
       </c>
@@ -3059,17 +3271,23 @@
       <c r="J48" s="17">
         <v>0.963409877820671</v>
       </c>
+      <c r="L48" s="17">
+        <v>1</v>
+      </c>
       <c r="M48" s="17">
         <v>1</v>
       </c>
       <c r="N48" s="18">
         <v>-5.64491274309165E-3</v>
       </c>
-      <c r="R48" s="19">
+      <c r="P48" s="9">
         <v>-4.2235034922420603E-2</v>
       </c>
-    </row>
-    <row r="49" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q48" s="19">
+        <v>-4.2235034922420603E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B49" s="4" t="s">
         <v>35</v>
       </c>
@@ -3092,3486 +3310,4156 @@
         <v>5.6449127430916596E-3</v>
       </c>
     </row>
-    <row r="50" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B50" s="4" t="s">
-        <v>36</v>
+        <v>142</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D50" s="15">
-        <v>20695</v>
-      </c>
-      <c r="E50" s="8">
-        <v>472729</v>
-      </c>
       <c r="G50" s="8">
-        <v>953821</v>
-      </c>
-      <c r="H50" s="16">
-        <v>2072.4068310766302</v>
-      </c>
-      <c r="I50" s="17">
-        <v>0.97009328270754203</v>
-      </c>
-      <c r="J50" s="17">
-        <v>0.94067934890755001</v>
+        <v>2487.9932386669002</v>
       </c>
       <c r="L50" s="17">
-        <v>0.90612958754816497</v>
-      </c>
-      <c r="M50" s="17">
-        <v>0.88475456665476404</v>
-      </c>
-      <c r="N50" s="18">
-        <v>2.94139337999927E-2</v>
-      </c>
-      <c r="Q50" s="9">
-        <v>6.3963695159377401E-2</v>
-      </c>
-      <c r="R50" s="19">
-        <v>8.5338716052777902E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="2:18" x14ac:dyDescent="0.2">
+        <v>0.91155133281552403</v>
+      </c>
+    </row>
+    <row r="51" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B51" s="4" t="s">
-        <v>36</v>
+        <v>142</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D51" s="15">
-        <v>238</v>
-      </c>
-      <c r="E51" s="8">
-        <v>9091</v>
-      </c>
       <c r="G51" s="8">
-        <v>16895</v>
-      </c>
-      <c r="H51" s="16">
-        <v>46.555112063282301</v>
-      </c>
-      <c r="I51" s="17">
-        <v>1.115642431913E-2</v>
-      </c>
-      <c r="J51" s="17">
-        <v>1.80901022804155E-2</v>
+        <v>42.8675716524493</v>
       </c>
       <c r="L51" s="17">
-        <v>1.60502435799026E-2</v>
-      </c>
-      <c r="M51" s="17">
-        <v>1.9875367800112301E-2</v>
-      </c>
-      <c r="N51" s="18">
-        <v>-6.9336779612855001E-3</v>
-      </c>
-      <c r="Q51" s="9">
-        <v>-4.8938192607725804E-3</v>
-      </c>
-      <c r="R51" s="19">
-        <v>-8.7189434809823094E-3</v>
-      </c>
-    </row>
-    <row r="52" spans="2:18" x14ac:dyDescent="0.2">
+        <v>1.5705827277606499E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B52" s="4" t="s">
-        <v>36</v>
+        <v>142</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D52" s="15">
-        <v>213</v>
-      </c>
-      <c r="E52" s="8">
-        <v>9882</v>
-      </c>
       <c r="G52" s="8">
-        <v>53946</v>
-      </c>
-      <c r="H52" s="16">
-        <v>150.878563191149</v>
-      </c>
-      <c r="I52" s="17">
-        <v>9.9845310082970103E-3</v>
-      </c>
-      <c r="J52" s="17">
-        <v>1.9664106339793801E-2</v>
+        <v>136.835662902748</v>
       </c>
       <c r="L52" s="17">
-        <v>5.1248679500528201E-2</v>
-      </c>
-      <c r="M52" s="17">
-        <v>6.4413268568666707E-2</v>
-      </c>
-      <c r="N52" s="18">
-        <v>-9.6795753314968397E-3</v>
-      </c>
-      <c r="Q52" s="9">
-        <v>-4.1264148492231201E-2</v>
-      </c>
-      <c r="R52" s="19">
-        <v>-5.44287375603697E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="2:18" x14ac:dyDescent="0.2">
+        <v>5.013387052552E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B53" s="4" t="s">
-        <v>36</v>
+        <v>142</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D53" s="15">
-        <v>122</v>
-      </c>
-      <c r="E53" s="8">
-        <v>8061</v>
-      </c>
       <c r="G53" s="8">
-        <v>27970</v>
-      </c>
-      <c r="H53" s="16">
-        <v>71.733818774181003</v>
-      </c>
-      <c r="I53" s="17">
-        <v>5.7188393568649498E-3</v>
-      </c>
-      <c r="J53" s="17">
-        <v>1.6040514187925299E-2</v>
+        <v>55.7621480701536</v>
       </c>
       <c r="L53" s="17">
-        <v>2.65714893714043E-2</v>
-      </c>
-      <c r="M53" s="17">
-        <v>3.0624693372136001E-2</v>
-      </c>
-      <c r="N53" s="18">
-        <v>-1.03216748310604E-2</v>
-      </c>
-      <c r="Q53" s="9">
-        <v>-2.0852650014539301E-2</v>
-      </c>
-      <c r="R53" s="19">
-        <v>-2.4905854015271001E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="2:18" x14ac:dyDescent="0.2">
+        <v>2.0430144103301701E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B54" s="4" t="s">
-        <v>36</v>
+        <v>142</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D54" s="15">
-        <v>65</v>
-      </c>
-      <c r="E54" s="8">
-        <v>2777</v>
-      </c>
-      <c r="H54" s="16">
-        <v>0.77790361774753802</v>
-      </c>
-      <c r="I54" s="17">
-        <v>3.0469226081657501E-3</v>
-      </c>
-      <c r="J54" s="17">
-        <v>5.5259282843156798E-3</v>
-      </c>
-      <c r="M54" s="17">
-        <v>3.3210360432070301E-4</v>
-      </c>
-      <c r="N54" s="18">
-        <v>-2.4790056761499202E-3</v>
-      </c>
-      <c r="R54" s="19">
-        <v>2.71481900384505E-3</v>
-      </c>
-    </row>
-    <row r="55" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="G54" s="8">
+        <v>5.9468977389072304</v>
+      </c>
+      <c r="L54" s="17">
+        <v>2.1788252780474198E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B55" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>37</v>
       </c>
       <c r="D55" s="15">
-        <v>19688</v>
+        <v>20695</v>
       </c>
       <c r="E55" s="8">
-        <v>443184</v>
-      </c>
-      <c r="G55" s="8">
-        <v>907988</v>
+        <v>472729</v>
+      </c>
+      <c r="F55" s="8">
+        <v>953821</v>
+      </c>
+      <c r="H55" s="16">
+        <v>2072.4068310766302</v>
       </c>
       <c r="I55" s="17">
-        <v>0.92288942014719</v>
+        <v>0.97009328270754203</v>
       </c>
       <c r="J55" s="17">
-        <v>0.88188800891471297</v>
-      </c>
-      <c r="L55" s="17">
-        <v>0.86258825496469804</v>
+        <v>0.94067934890755001</v>
+      </c>
+      <c r="K55" s="17">
+        <v>0.90612958754816497</v>
+      </c>
+      <c r="M55" s="17">
+        <v>0.88475456665476404</v>
       </c>
       <c r="N55" s="18">
-        <v>4.1001411232476498E-2</v>
-      </c>
-      <c r="Q55" s="9">
-        <v>6.0301165182491699E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="2:18" x14ac:dyDescent="0.2">
+        <v>2.94139337999927E-2</v>
+      </c>
+      <c r="O55" s="9">
+        <v>6.3963695159377401E-2</v>
+      </c>
+      <c r="Q55" s="19">
+        <v>8.5338716052777902E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B56" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D56" s="15">
-        <v>506</v>
+        <v>238</v>
       </c>
       <c r="E56" s="8">
-        <v>13209</v>
-      </c>
-      <c r="G56" s="8">
-        <v>12829</v>
+        <v>9091</v>
+      </c>
+      <c r="F56" s="8">
+        <v>16895</v>
+      </c>
+      <c r="H56" s="16">
+        <v>46.555112063282301</v>
       </c>
       <c r="I56" s="17">
-        <v>2.3719120611259501E-2</v>
+        <v>1.115642431913E-2</v>
       </c>
       <c r="J56" s="17">
-        <v>2.62844748676722E-2</v>
-      </c>
-      <c r="L56" s="17">
-        <v>1.2187545124981901E-2</v>
+        <v>1.80901022804155E-2</v>
+      </c>
+      <c r="K56" s="17">
+        <v>1.60502435799026E-2</v>
+      </c>
+      <c r="M56" s="17">
+        <v>1.9875367800112301E-2</v>
       </c>
       <c r="N56" s="18">
-        <v>-2.5653542564126699E-3</v>
-      </c>
-      <c r="Q56" s="9">
-        <v>1.15315754862776E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="2:18" x14ac:dyDescent="0.2">
+        <v>-6.9336779612855001E-3</v>
+      </c>
+      <c r="O56" s="9">
+        <v>-4.8938192607725804E-3</v>
+      </c>
+      <c r="Q56" s="19">
+        <v>-8.7189434809823094E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B57" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D57" s="15">
-        <v>501</v>
+        <v>213</v>
       </c>
       <c r="E57" s="8">
-        <v>16336</v>
-      </c>
-      <c r="G57" s="8">
-        <v>33004</v>
+        <v>9882</v>
+      </c>
+      <c r="F57" s="8">
+        <v>53946</v>
+      </c>
+      <c r="H57" s="16">
+        <v>150.878563191149</v>
       </c>
       <c r="I57" s="17">
-        <v>2.3484741949092999E-2</v>
+        <v>9.9845310082970103E-3</v>
       </c>
       <c r="J57" s="17">
-        <v>3.2506865125164201E-2</v>
-      </c>
-      <c r="L57" s="17">
-        <v>3.1353787458485001E-2</v>
+        <v>1.9664106339793801E-2</v>
+      </c>
+      <c r="K57" s="17">
+        <v>5.1248679500528201E-2</v>
+      </c>
+      <c r="M57" s="17">
+        <v>6.4413268568666707E-2</v>
       </c>
       <c r="N57" s="18">
-        <v>-9.0221231760712096E-3</v>
-      </c>
-      <c r="Q57" s="9">
-        <v>-7.8690455093920596E-3</v>
-      </c>
-    </row>
-    <row r="58" spans="2:18" x14ac:dyDescent="0.2">
+        <v>-9.6795753314968397E-3</v>
+      </c>
+      <c r="O57" s="9">
+        <v>-4.1264148492231201E-2</v>
+      </c>
+      <c r="Q57" s="19">
+        <v>-5.44287375603697E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B58" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D58" s="15">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="E58" s="8">
-        <v>2958</v>
-      </c>
-      <c r="G58" s="8">
-        <v>9490</v>
+        <v>8061</v>
+      </c>
+      <c r="F58" s="8">
+        <v>27970</v>
+      </c>
+      <c r="H58" s="16">
+        <v>71.733818774181003</v>
       </c>
       <c r="I58" s="17">
-        <v>4.0781887216987797E-3</v>
+        <v>5.7188393568649498E-3</v>
       </c>
       <c r="J58" s="17">
-        <v>5.8860986190153999E-3</v>
-      </c>
-      <c r="L58" s="17">
-        <v>9.0154963938014407E-3</v>
+        <v>1.6040514187925299E-2</v>
+      </c>
+      <c r="K58" s="17">
+        <v>2.65714893714043E-2</v>
+      </c>
+      <c r="M58" s="17">
+        <v>3.0624693372136001E-2</v>
       </c>
       <c r="N58" s="18">
-        <v>-1.80790989731663E-3</v>
-      </c>
-      <c r="Q58" s="9">
-        <v>-4.9373076721026697E-3</v>
-      </c>
-    </row>
-    <row r="59" spans="2:18" x14ac:dyDescent="0.2">
+        <v>-1.03216748310604E-2</v>
+      </c>
+      <c r="O58" s="9">
+        <v>-2.0852650014539301E-2</v>
+      </c>
+      <c r="Q58" s="19">
+        <v>-2.4905854015271001E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B59" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="D59" s="15">
-        <v>137</v>
+        <v>65</v>
       </c>
       <c r="E59" s="8">
-        <v>5951</v>
-      </c>
-      <c r="G59" s="8">
-        <v>21655</v>
+        <v>2777</v>
+      </c>
+      <c r="H59" s="16">
+        <v>0.77790361774753802</v>
       </c>
       <c r="I59" s="17">
-        <v>6.4219753433647402E-3</v>
+        <v>3.0469226081657501E-3</v>
       </c>
       <c r="J59" s="17">
-        <v>1.1841843435348399E-2</v>
-      </c>
-      <c r="L59" s="17">
-        <v>2.0572241771103301E-2</v>
+        <v>5.5259282843156798E-3</v>
+      </c>
+      <c r="M59" s="17">
+        <v>3.3210360432070301E-4</v>
       </c>
       <c r="N59" s="18">
-        <v>-5.4198680919836902E-3</v>
-      </c>
-      <c r="Q59" s="9">
-        <v>-1.41502664277386E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="2:18" x14ac:dyDescent="0.2">
+        <v>-2.4790056761499202E-3</v>
+      </c>
+      <c r="Q59" s="19">
+        <v>2.71481900384505E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B60" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D60" s="15">
-        <v>45</v>
+        <v>19688</v>
       </c>
       <c r="E60" s="8">
-        <v>1837</v>
+        <v>443184</v>
+      </c>
+      <c r="F60" s="8">
+        <v>907988</v>
       </c>
       <c r="G60" s="8">
-        <v>11412</v>
+        <v>2370.7133711619199</v>
       </c>
       <c r="I60" s="17">
-        <v>2.1094079594993699E-3</v>
+        <v>0.92288942014719</v>
       </c>
       <c r="J60" s="17">
-        <v>3.6554304134994199E-3</v>
+        <v>0.88188800891471297</v>
+      </c>
+      <c r="K60" s="17">
+        <v>0.86258825496469804</v>
       </c>
       <c r="L60" s="17">
-        <v>1.0841395663441699E-2</v>
+        <v>0.86858231751632298</v>
       </c>
       <c r="N60" s="18">
-        <v>-1.54602245400006E-3</v>
-      </c>
-      <c r="Q60" s="9">
-        <v>-8.7319877039423698E-3</v>
-      </c>
-    </row>
-    <row r="61" spans="2:18" x14ac:dyDescent="0.2">
+        <v>4.1001411232476498E-2</v>
+      </c>
+      <c r="O60" s="9">
+        <v>6.0301165182491699E-2</v>
+      </c>
+      <c r="P60" s="9">
+        <v>5.4307102630867098E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B61" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D61" s="15">
-        <v>5</v>
+        <v>506</v>
       </c>
       <c r="E61" s="8">
-        <v>236</v>
+        <v>13209</v>
+      </c>
+      <c r="F61" s="8">
+        <v>12829</v>
       </c>
       <c r="G61" s="8">
-        <v>3783</v>
+        <v>24.447986227836498</v>
       </c>
       <c r="I61" s="17">
-        <v>2.3437866216659601E-4</v>
+        <v>2.3719120611259501E-2</v>
       </c>
       <c r="J61" s="17">
-        <v>4.6961435905599602E-4</v>
+        <v>2.62844748676722E-2</v>
+      </c>
+      <c r="K61" s="17">
+        <v>1.2187545124981901E-2</v>
       </c>
       <c r="L61" s="17">
-        <v>3.5938485624605701E-3</v>
+        <v>8.9572568302399794E-3</v>
       </c>
       <c r="N61" s="18">
-        <v>-2.35235696889399E-4</v>
-      </c>
-      <c r="Q61" s="9">
-        <v>-3.3594699002939799E-3</v>
-      </c>
-    </row>
-    <row r="62" spans="2:18" x14ac:dyDescent="0.2">
+        <v>-2.5653542564126699E-3</v>
+      </c>
+      <c r="O61" s="9">
+        <v>1.15315754862776E-2</v>
+      </c>
+      <c r="P61" s="9">
+        <v>1.47618637810196E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B62" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D62" s="15">
-        <v>26</v>
+        <v>501</v>
       </c>
       <c r="E62" s="8">
-        <v>1858</v>
+        <v>16336</v>
+      </c>
+      <c r="F62" s="8">
+        <v>33004</v>
       </c>
       <c r="G62" s="8">
-        <v>17096</v>
+        <v>92.831881277139004</v>
       </c>
       <c r="I62" s="17">
-        <v>1.2187690432663E-3</v>
+        <v>2.3484741949092999E-2</v>
       </c>
       <c r="J62" s="17">
-        <v>3.6972181318900002E-3</v>
+        <v>3.2506865125164201E-2</v>
+      </c>
+      <c r="K62" s="17">
+        <v>3.1353787458485001E-2</v>
       </c>
       <c r="L62" s="17">
-        <v>1.62411935035226E-2</v>
+        <v>3.4011758468961803E-2</v>
       </c>
       <c r="N62" s="18">
-        <v>-2.4784490886237001E-3</v>
-      </c>
-      <c r="Q62" s="9">
-        <v>-1.50224244602563E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="2:18" x14ac:dyDescent="0.2">
+        <v>-9.0221231760712096E-3</v>
+      </c>
+      <c r="O62" s="9">
+        <v>-7.8690455093920596E-3</v>
+      </c>
+      <c r="P62" s="9">
+        <v>-1.0527016519868799E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B63" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D63" s="15">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="E63" s="8">
-        <v>4517</v>
+        <v>2958</v>
+      </c>
+      <c r="F63" s="8">
+        <v>9490</v>
+      </c>
+      <c r="G63" s="8">
+        <v>31.4971949355803</v>
       </c>
       <c r="I63" s="17">
-        <v>3.4688042000656301E-3</v>
+        <v>4.0781887216987797E-3</v>
       </c>
       <c r="J63" s="17">
-        <v>8.9883392366776806E-3</v>
+        <v>5.8860986190153999E-3</v>
+      </c>
+      <c r="K63" s="17">
+        <v>9.0154963938014407E-3</v>
+      </c>
+      <c r="L63" s="17">
+        <v>1.1539946964993599E-2</v>
       </c>
       <c r="N63" s="18">
-        <v>-5.5195350366120501E-3</v>
-      </c>
-    </row>
-    <row r="64" spans="2:18" x14ac:dyDescent="0.2">
+        <v>-1.80790989731663E-3</v>
+      </c>
+      <c r="O63" s="9">
+        <v>-4.9373076721026697E-3</v>
+      </c>
+      <c r="P63" s="9">
+        <v>-7.4617582432947903E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B64" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
+      </c>
+      <c r="D64" s="15">
+        <v>137</v>
+      </c>
+      <c r="E64" s="8">
+        <v>5951</v>
+      </c>
+      <c r="F64" s="8">
+        <v>21655</v>
       </c>
       <c r="G64" s="8">
-        <v>15642</v>
+        <v>50.497230273213901</v>
+      </c>
+      <c r="I64" s="17">
+        <v>6.4219753433647402E-3</v>
+      </c>
+      <c r="J64" s="17">
+        <v>1.1841843435348399E-2</v>
+      </c>
+      <c r="K64" s="17">
+        <v>2.0572241771103301E-2</v>
       </c>
       <c r="L64" s="17">
-        <v>1.48598940560424E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+        <v>1.8501182737821399E-2</v>
+      </c>
+      <c r="N64" s="18">
+        <v>-5.4198680919836902E-3</v>
+      </c>
+      <c r="O64" s="9">
+        <v>-1.41502664277386E-2</v>
+      </c>
+      <c r="P64" s="9">
+        <v>-1.20792073944567E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B65" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D65" s="15">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E65" s="8">
-        <v>3394</v>
+        <v>1837</v>
+      </c>
+      <c r="F65" s="8">
+        <v>11412</v>
       </c>
       <c r="G65" s="8">
-        <v>12328</v>
+        <v>29.488138093342901</v>
       </c>
       <c r="I65" s="17">
-        <v>2.2031594243660099E-3</v>
+        <v>2.1094079594993699E-3</v>
       </c>
       <c r="J65" s="17">
-        <v>6.7536912484578299E-3</v>
+        <v>3.6554304134994199E-3</v>
+      </c>
+      <c r="K65" s="17">
+        <v>1.0841395663441699E-2</v>
       </c>
       <c r="L65" s="17">
-        <v>1.17115953153619E-2</v>
+        <v>1.0803868420332799E-2</v>
       </c>
       <c r="N65" s="18">
-        <v>-4.5505318240918304E-3</v>
-      </c>
-      <c r="Q65" s="9">
-        <v>-9.5084358909958699E-3</v>
-      </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+        <v>-1.54602245400006E-3</v>
+      </c>
+      <c r="O65" s="9">
+        <v>-8.7319877039423698E-3</v>
+      </c>
+      <c r="P65" s="9">
+        <v>-8.6944604608334697E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B66" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D66" s="15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E66" s="8">
-        <v>150</v>
+        <v>236</v>
+      </c>
+      <c r="F66" s="8">
+        <v>3783</v>
+      </c>
+      <c r="G66" s="8">
+        <v>9.1339864755157905</v>
       </c>
       <c r="I66" s="17">
-        <v>4.6875732433319298E-5</v>
+        <v>2.3437866216659601E-4</v>
       </c>
       <c r="J66" s="17">
-        <v>2.9848370278982801E-4</v>
+        <v>4.6961435905599602E-4</v>
+      </c>
+      <c r="K66" s="17">
+        <v>3.5938485624605701E-3</v>
+      </c>
+      <c r="L66" s="17">
+        <v>3.3465113233734599E-3</v>
       </c>
       <c r="N66" s="18">
-        <v>-2.5160797035650797E-4</v>
-      </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+        <v>-2.35235696889399E-4</v>
+      </c>
+      <c r="O66" s="9">
+        <v>-3.3594699002939799E-3</v>
+      </c>
+      <c r="P66" s="9">
+        <v>-3.1121326612068602E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B67" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D67" s="15">
-        <v>151</v>
+        <v>26</v>
       </c>
       <c r="E67" s="8">
-        <v>6133</v>
+        <v>1858</v>
+      </c>
+      <c r="F67" s="8">
+        <v>17096</v>
       </c>
       <c r="G67" s="8">
-        <v>7405</v>
+        <v>47.716308060675203</v>
       </c>
       <c r="I67" s="17">
-        <v>7.07823559743121E-3</v>
+        <v>1.2187690432663E-3</v>
       </c>
       <c r="J67" s="17">
-        <v>1.2204003661400099E-2</v>
+        <v>3.6972181318900002E-3</v>
+      </c>
+      <c r="K67" s="17">
+        <v>1.62411935035226E-2</v>
       </c>
       <c r="L67" s="17">
-        <v>7.0347471861011302E-3</v>
+        <v>1.7482308043992201E-2</v>
       </c>
       <c r="N67" s="18">
-        <v>-5.1257680639688798E-3</v>
-      </c>
-      <c r="Q67" s="9">
-        <v>4.3488411330084103E-5</v>
-      </c>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+        <v>-2.4784490886237001E-3</v>
+      </c>
+      <c r="O67" s="9">
+        <v>-1.50224244602563E-2</v>
+      </c>
+      <c r="P67" s="9">
+        <v>-1.6263539000725899E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B68" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C68" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="G68" s="8">
+        <v>25.5534492697874</v>
+      </c>
+      <c r="L68" s="17">
+        <v>9.3622765439625704E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B69" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D69" s="15">
+        <v>74</v>
+      </c>
+      <c r="E69" s="8">
+        <v>4517</v>
+      </c>
+      <c r="I69" s="17">
+        <v>3.4688042000656301E-3</v>
+      </c>
+      <c r="J69" s="17">
+        <v>8.9883392366776806E-3</v>
+      </c>
+      <c r="N69" s="18">
+        <v>-5.5195350366120501E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B70" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F70" s="8">
+        <v>15642</v>
+      </c>
+      <c r="K70" s="17">
+        <v>1.48598940560424E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B71" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D71" s="15">
+        <v>47</v>
+      </c>
+      <c r="E71" s="8">
+        <v>3394</v>
+      </c>
+      <c r="F71" s="8">
+        <v>12328</v>
+      </c>
+      <c r="G71" s="8">
+        <v>24.391550963654002</v>
+      </c>
+      <c r="I71" s="17">
+        <v>2.2031594243660099E-3</v>
+      </c>
+      <c r="J71" s="17">
+        <v>6.7536912484578299E-3</v>
+      </c>
+      <c r="K71" s="17">
+        <v>1.17115953153619E-2</v>
+      </c>
+      <c r="L71" s="17">
+        <v>8.9365800697552896E-3</v>
+      </c>
+      <c r="N71" s="18">
+        <v>-4.5505318240918304E-3</v>
+      </c>
+      <c r="O71" s="9">
+        <v>-9.5084358909958699E-3</v>
+      </c>
+      <c r="P71" s="9">
+        <v>-6.7334206453892901E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B72" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D72" s="15">
+        <v>1</v>
+      </c>
+      <c r="E72" s="8">
+        <v>150</v>
+      </c>
+      <c r="G72" s="8">
+        <v>5.8171478367122598</v>
+      </c>
+      <c r="I72" s="17">
+        <v>4.6875732433319298E-5</v>
+      </c>
+      <c r="J72" s="17">
+        <v>2.9848370278982801E-4</v>
+      </c>
+      <c r="L72" s="17">
+        <v>2.1312874895838599E-3</v>
+      </c>
+      <c r="N72" s="18">
+        <v>-2.5160797035650797E-4</v>
+      </c>
+      <c r="P72" s="9">
+        <v>-2.0844117571505402E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B73" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D73" s="15">
+        <v>151</v>
+      </c>
+      <c r="E73" s="8">
+        <v>6133</v>
+      </c>
+      <c r="F73" s="8">
+        <v>7405</v>
+      </c>
+      <c r="G73" s="8">
+        <v>11.370376716869</v>
+      </c>
+      <c r="I73" s="17">
+        <v>7.07823559743121E-3</v>
+      </c>
+      <c r="J73" s="17">
+        <v>1.2204003661400099E-2</v>
+      </c>
+      <c r="K73" s="17">
+        <v>7.0347471861011302E-3</v>
+      </c>
+      <c r="L73" s="17">
+        <v>4.1658803126129202E-3</v>
+      </c>
+      <c r="N73" s="18">
+        <v>-5.1257680639688798E-3</v>
+      </c>
+      <c r="O73" s="9">
+        <v>4.3488411330084103E-5</v>
+      </c>
+      <c r="P73" s="9">
+        <v>2.9123552848182902E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B74" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C74" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D68" s="15">
+      <c r="D74" s="15">
         <v>65</v>
       </c>
-      <c r="E68" s="8">
+      <c r="E74" s="8">
         <v>2777</v>
       </c>
-      <c r="I68" s="17">
+      <c r="G74" s="8">
+        <v>5.9468977389072304</v>
+      </c>
+      <c r="I74" s="17">
         <v>3.0469226081657501E-3</v>
       </c>
-      <c r="J68" s="17">
+      <c r="J74" s="17">
         <v>5.5259282843156798E-3</v>
       </c>
-      <c r="N68" s="18">
+      <c r="L74" s="17">
+        <v>2.1788252780474198E-3</v>
+      </c>
+      <c r="N74" s="18">
         <v>-2.4790056761499202E-3</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B69" s="4" t="s">
+      <c r="P74" s="9">
+        <v>8.6809733011833205E-4</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B75" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="C75" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D69" s="15">
+      <c r="D75" s="15">
         <v>20341</v>
       </c>
-      <c r="E69" s="8">
+      <c r="E75" s="8">
         <v>447824</v>
       </c>
-      <c r="G69" s="8">
+      <c r="F75" s="8">
         <v>916575</v>
       </c>
-      <c r="I69" s="17">
+      <c r="I75" s="17">
         <v>0.95349927342614704</v>
       </c>
-      <c r="J69" s="17">
+      <c r="J75" s="17">
         <v>0.89112110478767903</v>
       </c>
-      <c r="L69" s="17">
+      <c r="K75" s="17">
         <v>0.87074590170163901</v>
       </c>
-      <c r="N69" s="18">
+      <c r="N75" s="18">
         <v>6.2378168638468699E-2</v>
       </c>
-      <c r="Q69" s="9">
+      <c r="O75" s="9">
         <v>8.2753371724507904E-2</v>
       </c>
     </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B70" s="4" t="s">
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B76" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="C76" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D70" s="15">
+      <c r="D76" s="15">
         <v>986</v>
       </c>
-      <c r="E70" s="8">
+      <c r="E76" s="8">
         <v>53772</v>
       </c>
-      <c r="G70" s="8">
+      <c r="F76" s="8">
         <v>129646</v>
       </c>
-      <c r="I70" s="17">
+      <c r="I76" s="17">
         <v>4.6219472179252798E-2</v>
       </c>
-      <c r="J70" s="17">
+      <c r="J76" s="17">
         <v>0.107000437776097</v>
       </c>
-      <c r="L70" s="17">
+      <c r="K76" s="17">
         <v>0.12316365073454</v>
       </c>
-      <c r="N70" s="18">
+      <c r="N76" s="18">
         <v>-6.0780965596844601E-2</v>
       </c>
-      <c r="Q70" s="9">
+      <c r="O76" s="9">
         <v>-7.6944178555286902E-2</v>
       </c>
     </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B71" s="4" t="s">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B77" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="C77" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D71" s="15">
+      <c r="D77" s="15">
         <v>1</v>
       </c>
-      <c r="E71" s="8">
+      <c r="E77" s="8">
         <v>81</v>
       </c>
-      <c r="G71" s="8">
+      <c r="F77" s="8">
         <v>6411</v>
       </c>
-      <c r="I71" s="17">
+      <c r="I77" s="17">
         <v>4.6875732433319298E-5</v>
       </c>
-      <c r="J71" s="17">
+      <c r="J77" s="17">
         <v>1.6118119950650701E-4</v>
       </c>
-      <c r="L71" s="17">
+      <c r="K77" s="17">
         <v>6.0904475638209696E-3</v>
       </c>
-      <c r="N71" s="18">
+      <c r="N77" s="18">
         <v>-1.14305467073188E-4</v>
       </c>
-      <c r="Q71" s="9">
+      <c r="O77" s="9">
         <v>-6.0435718313876603E-3</v>
       </c>
     </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B72" s="4" t="s">
+    <row r="78" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B78" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="C78" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D72" s="15">
+      <c r="D78" s="15">
         <v>5</v>
       </c>
-      <c r="E72" s="8">
+      <c r="E78" s="8">
         <v>863</v>
       </c>
-      <c r="I72" s="17">
+      <c r="I78" s="17">
         <v>2.3437866216659601E-4</v>
       </c>
-      <c r="J72" s="17">
+      <c r="J78" s="17">
         <v>1.71727623671748E-3</v>
       </c>
-      <c r="N72" s="18">
+      <c r="N78" s="18">
         <v>-1.4828975745508799E-3</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B73" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D73" s="15">
-        <v>11212</v>
-      </c>
-      <c r="E73" s="8">
-        <v>259114</v>
-      </c>
-      <c r="G73" s="8">
-        <v>355264</v>
-      </c>
-      <c r="H73" s="16">
-        <v>763.203129550222</v>
-      </c>
-      <c r="I73" s="17">
-        <v>0.52557071204237604</v>
-      </c>
-      <c r="J73" s="17">
-        <v>0.51560870776455603</v>
-      </c>
-      <c r="L73" s="17">
-        <v>0.33750066499973402</v>
-      </c>
-      <c r="M73" s="17">
-        <v>0.32582765315629098</v>
-      </c>
-      <c r="N73" s="18">
-        <v>9.9620042778196805E-3</v>
-      </c>
-      <c r="Q73" s="9">
-        <v>0.18807004704264199</v>
-      </c>
-      <c r="R73" s="19">
-        <v>0.19974305888608401</v>
-      </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B74" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D74" s="15">
-        <v>9008</v>
-      </c>
-      <c r="E74" s="8">
-        <v>183373</v>
-      </c>
-      <c r="G74" s="8">
-        <v>435430</v>
-      </c>
-      <c r="H74" s="16">
-        <v>887.29193579540902</v>
-      </c>
-      <c r="I74" s="17">
-        <v>0.42225659775933999</v>
-      </c>
-      <c r="J74" s="17">
-        <v>0.36489234687785999</v>
-      </c>
-      <c r="L74" s="17">
-        <v>0.41365833453666601</v>
-      </c>
-      <c r="M74" s="17">
-        <v>0.37880380453248202</v>
-      </c>
-      <c r="N74" s="18">
-        <v>5.7364250881479499E-2</v>
-      </c>
-      <c r="Q74" s="9">
-        <v>8.5982632226738204E-3</v>
-      </c>
-      <c r="R74" s="19">
-        <v>4.3452793226857897E-2</v>
-      </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B75" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D75" s="15">
-        <v>374</v>
-      </c>
-      <c r="E75" s="8">
-        <v>30547</v>
-      </c>
-      <c r="G75" s="8">
-        <v>144201</v>
-      </c>
-      <c r="H75" s="16">
-        <v>392.104547564222</v>
-      </c>
-      <c r="I75" s="17">
-        <v>1.75315239300614E-2</v>
-      </c>
-      <c r="J75" s="17">
-        <v>6.0785211127472399E-2</v>
-      </c>
-      <c r="L75" s="17">
-        <v>0.13699089520364199</v>
-      </c>
-      <c r="M75" s="17">
-        <v>0.167397773381841</v>
-      </c>
-      <c r="N75" s="18">
-        <v>-4.3253687197411003E-2</v>
-      </c>
-      <c r="Q75" s="9">
-        <v>-0.119459371273581</v>
-      </c>
-      <c r="R75" s="19">
-        <v>-0.14986624945178001</v>
-      </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B76" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D76" s="15">
-        <v>413</v>
-      </c>
-      <c r="E76" s="8">
-        <v>15904</v>
-      </c>
-      <c r="G76" s="8">
-        <v>96123</v>
-      </c>
-      <c r="H76" s="16">
-        <v>263.189583039659</v>
-      </c>
-      <c r="I76" s="17">
-        <v>1.9359677494960901E-2</v>
-      </c>
-      <c r="J76" s="17">
-        <v>3.1647232061129502E-2</v>
-      </c>
-      <c r="L76" s="17">
-        <v>9.1316813473274597E-2</v>
-      </c>
-      <c r="M76" s="17">
-        <v>0.11236123235963701</v>
-      </c>
-      <c r="N76" s="18">
-        <v>-1.2287554566168601E-2</v>
-      </c>
-      <c r="Q76" s="9">
-        <v>-7.1957135978313796E-2</v>
-      </c>
-      <c r="R76" s="19">
-        <v>-9.3001554864676594E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B77" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D77" s="15">
-        <v>36</v>
-      </c>
-      <c r="E77" s="8">
-        <v>1490</v>
-      </c>
-      <c r="G77" s="8">
-        <v>5494</v>
-      </c>
-      <c r="H77" s="16">
-        <v>17.591503944361101</v>
-      </c>
-      <c r="I77" s="17">
-        <v>1.6875263675994901E-3</v>
-      </c>
-      <c r="J77" s="17">
-        <v>2.9649381143789502E-3</v>
-      </c>
-      <c r="L77" s="17">
-        <v>5.2192979122808398E-3</v>
-      </c>
-      <c r="M77" s="17">
-        <v>7.5101872932029903E-3</v>
-      </c>
-      <c r="N77" s="18">
-        <v>-1.2774117467794601E-3</v>
-      </c>
-      <c r="Q77" s="9">
-        <v>-3.5317715446813399E-3</v>
-      </c>
-      <c r="R77" s="19">
-        <v>-5.8226609256035004E-3</v>
-      </c>
-    </row>
-    <row r="78" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B78" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D78" s="15">
-        <v>112</v>
-      </c>
-      <c r="E78" s="8">
-        <v>3633</v>
-      </c>
-      <c r="G78" s="8">
-        <v>9386</v>
-      </c>
-      <c r="H78" s="16">
-        <v>17.6911214556938</v>
-      </c>
-      <c r="I78" s="17">
-        <v>5.2500820325317599E-3</v>
-      </c>
-      <c r="J78" s="17">
-        <v>7.2292752815696299E-3</v>
-      </c>
-      <c r="L78" s="17">
-        <v>8.9166964333214308E-3</v>
-      </c>
-      <c r="M78" s="17">
-        <v>7.5527161281540699E-3</v>
-      </c>
-      <c r="N78" s="18">
-        <v>-1.9791932490378699E-3</v>
-      </c>
-      <c r="Q78" s="9">
-        <v>-3.66661440078967E-3</v>
-      </c>
-      <c r="R78" s="19">
-        <v>-2.30263409562231E-3</v>
-      </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="4" t="s">
         <v>58</v>
       </c>
       <c r="C79" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D79" s="15">
+        <v>11212</v>
+      </c>
+      <c r="E79" s="8">
+        <v>259114</v>
+      </c>
+      <c r="F79" s="8">
+        <v>355264</v>
+      </c>
+      <c r="G79" s="8">
+        <v>938.57099312667594</v>
+      </c>
+      <c r="H79" s="16">
+        <v>763.203129550222</v>
+      </c>
+      <c r="I79" s="17">
+        <v>0.52557071204237604</v>
+      </c>
+      <c r="J79" s="17">
+        <v>0.51560870776455603</v>
+      </c>
+      <c r="K79" s="17">
+        <v>0.33750066499973402</v>
+      </c>
+      <c r="L79" s="17">
+        <v>0.34387378005296798</v>
+      </c>
+      <c r="M79" s="17">
+        <v>0.32582765315629098</v>
+      </c>
+      <c r="N79" s="18">
+        <v>9.9620042778196805E-3</v>
+      </c>
+      <c r="O79" s="9">
+        <v>0.18807004704264199</v>
+      </c>
+      <c r="P79" s="9">
+        <v>0.18169693198940801</v>
+      </c>
+      <c r="Q79" s="19">
+        <v>0.19974305888608401</v>
+      </c>
+    </row>
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B80" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D80" s="15">
+        <v>9008</v>
+      </c>
+      <c r="E80" s="8">
+        <v>183373</v>
+      </c>
+      <c r="F80" s="8">
+        <v>435430</v>
+      </c>
+      <c r="G80" s="8">
+        <v>1082.37342773973</v>
+      </c>
+      <c r="H80" s="16">
+        <v>887.29193579540902</v>
+      </c>
+      <c r="I80" s="17">
+        <v>0.42225659775933999</v>
+      </c>
+      <c r="J80" s="17">
+        <v>0.36489234687785999</v>
+      </c>
+      <c r="K80" s="17">
+        <v>0.41365833453666601</v>
+      </c>
+      <c r="L80" s="17">
+        <v>0.39656013743385998</v>
+      </c>
+      <c r="M80" s="17">
+        <v>0.37880380453248202</v>
+      </c>
+      <c r="N80" s="18">
+        <v>5.7364250881479499E-2</v>
+      </c>
+      <c r="O80" s="9">
+        <v>8.5982632226738204E-3</v>
+      </c>
+      <c r="P80" s="9">
+        <v>2.5696460325480001E-2</v>
+      </c>
+      <c r="Q80" s="19">
+        <v>4.3452793226857897E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B81" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D81" s="15">
+        <v>374</v>
+      </c>
+      <c r="E81" s="8">
+        <v>30547</v>
+      </c>
+      <c r="F81" s="8">
+        <v>144201</v>
+      </c>
+      <c r="G81" s="8">
+        <v>413.42784065814601</v>
+      </c>
+      <c r="H81" s="16">
+        <v>392.104547564222</v>
+      </c>
+      <c r="I81" s="17">
+        <v>1.75315239300614E-2</v>
+      </c>
+      <c r="J81" s="17">
+        <v>6.0785211127472399E-2</v>
+      </c>
+      <c r="K81" s="17">
+        <v>0.13699089520364199</v>
+      </c>
+      <c r="L81" s="17">
+        <v>0.15147175374837599</v>
+      </c>
+      <c r="M81" s="17">
+        <v>0.167397773381841</v>
+      </c>
+      <c r="N81" s="18">
+        <v>-4.3253687197411003E-2</v>
+      </c>
+      <c r="O81" s="9">
+        <v>-0.119459371273581</v>
+      </c>
+      <c r="P81" s="9">
+        <v>-0.13394022981831499</v>
+      </c>
+      <c r="Q81" s="19">
+        <v>-0.14986624945178001</v>
+      </c>
+    </row>
+    <row r="82" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B82" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D82" s="15">
+        <v>413</v>
+      </c>
+      <c r="E82" s="8">
+        <v>15904</v>
+      </c>
+      <c r="F82" s="8">
+        <v>96123</v>
+      </c>
+      <c r="G82" s="8">
+        <v>250.608424989372</v>
+      </c>
+      <c r="H82" s="16">
+        <v>263.189583039659</v>
+      </c>
+      <c r="I82" s="17">
+        <v>1.9359677494960901E-2</v>
+      </c>
+      <c r="J82" s="17">
+        <v>3.1647232061129502E-2</v>
+      </c>
+      <c r="K82" s="17">
+        <v>9.1316813473274597E-2</v>
+      </c>
+      <c r="L82" s="17">
+        <v>9.1817952019943694E-2</v>
+      </c>
+      <c r="M82" s="17">
+        <v>0.11236123235963701</v>
+      </c>
+      <c r="N82" s="18">
+        <v>-1.2287554566168601E-2</v>
+      </c>
+      <c r="O82" s="9">
+        <v>-7.1957135978313796E-2</v>
+      </c>
+      <c r="P82" s="9">
+        <v>-7.2458274524982796E-2</v>
+      </c>
+      <c r="Q82" s="19">
+        <v>-9.3001554864676594E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B83" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D83" s="15">
+        <v>36</v>
+      </c>
+      <c r="E83" s="8">
+        <v>1490</v>
+      </c>
+      <c r="F83" s="8">
+        <v>5494</v>
+      </c>
+      <c r="G83" s="8">
+        <v>12.9015337929252</v>
+      </c>
+      <c r="H83" s="16">
+        <v>17.591503944361101</v>
+      </c>
+      <c r="I83" s="17">
+        <v>1.6875263675994901E-3</v>
+      </c>
+      <c r="J83" s="17">
+        <v>2.9649381143789502E-3</v>
+      </c>
+      <c r="K83" s="17">
+        <v>5.2192979122808398E-3</v>
+      </c>
+      <c r="L83" s="17">
+        <v>4.7268658698634003E-3</v>
+      </c>
+      <c r="M83" s="17">
+        <v>7.5101872932029903E-3</v>
+      </c>
+      <c r="N83" s="18">
+        <v>-1.2774117467794601E-3</v>
+      </c>
+      <c r="O83" s="9">
+        <v>-3.5317715446813399E-3</v>
+      </c>
+      <c r="P83" s="9">
+        <v>-3.03933950226391E-3</v>
+      </c>
+      <c r="Q83" s="19">
+        <v>-5.8226609256035004E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B84" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D84" s="15">
+        <v>112</v>
+      </c>
+      <c r="E84" s="8">
+        <v>3633</v>
+      </c>
+      <c r="F84" s="8">
+        <v>9386</v>
+      </c>
+      <c r="G84" s="8">
+        <v>25.743475805719999</v>
+      </c>
+      <c r="H84" s="16">
+        <v>17.6911214556938</v>
+      </c>
+      <c r="I84" s="17">
+        <v>5.2500820325317599E-3</v>
+      </c>
+      <c r="J84" s="17">
+        <v>7.2292752815696299E-3</v>
+      </c>
+      <c r="K84" s="17">
+        <v>8.9166964333214308E-3</v>
+      </c>
+      <c r="L84" s="17">
+        <v>9.4318984944596999E-3</v>
+      </c>
+      <c r="M84" s="17">
+        <v>7.5527161281540699E-3</v>
+      </c>
+      <c r="N84" s="18">
+        <v>-1.9791932490378699E-3</v>
+      </c>
+      <c r="O84" s="9">
+        <v>-3.66661440078967E-3</v>
+      </c>
+      <c r="P84" s="9">
+        <v>-4.18181646192794E-3</v>
+      </c>
+      <c r="Q84" s="19">
+        <v>-2.30263409562231E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B85" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C85" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D79" s="15">
+      <c r="D85" s="15">
         <v>178</v>
       </c>
-      <c r="E79" s="8">
+      <c r="E85" s="8">
         <v>8479</v>
       </c>
-      <c r="G79" s="8">
+      <c r="F85" s="8">
         <v>6734</v>
       </c>
-      <c r="H79" s="16">
+      <c r="G85" s="8">
+        <v>5.7798229185860297</v>
+      </c>
+      <c r="H85" s="16">
         <v>1.2804073734273</v>
       </c>
-      <c r="I79" s="17">
+      <c r="I85" s="17">
         <v>8.3438803731308298E-3</v>
       </c>
-      <c r="J79" s="17">
+      <c r="J85" s="17">
         <v>1.6872288773033001E-2</v>
       </c>
-      <c r="L79" s="17">
+      <c r="K85" s="17">
         <v>6.3972974410810204E-3</v>
       </c>
-      <c r="M79" s="17">
+      <c r="L85" s="17">
+        <v>2.1176123805295398E-3</v>
+      </c>
+      <c r="M85" s="17">
         <v>5.4663314839090203E-4</v>
       </c>
-      <c r="N79" s="18">
+      <c r="N85" s="18">
         <v>-8.5284083999021595E-3</v>
       </c>
-      <c r="Q79" s="9">
+      <c r="O85" s="9">
         <v>1.94658293204981E-3</v>
       </c>
-      <c r="R79" s="19">
+      <c r="P85" s="9">
+        <v>6.22626799260129E-3</v>
+      </c>
+      <c r="Q85" s="19">
         <v>7.79724722473993E-3</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B80" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C80" s="5"/>
-      <c r="D80" s="15">
-        <v>15</v>
-      </c>
-      <c r="E80" s="8">
-        <v>2431</v>
-      </c>
-      <c r="I80" s="17">
-        <v>7.03135986499789E-4</v>
-      </c>
-      <c r="J80" s="17">
-        <v>4.8374258765471398E-3</v>
-      </c>
-      <c r="N80" s="18">
-        <v>-4.1342898900473503E-3</v>
-      </c>
-    </row>
-    <row r="81" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B81" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C81" s="5">
-        <v>1</v>
-      </c>
-      <c r="D81" s="15">
-        <v>3201</v>
-      </c>
-      <c r="E81" s="8">
-        <v>92925</v>
-      </c>
-      <c r="G81" s="8">
-        <v>164821</v>
-      </c>
-      <c r="I81" s="17">
-        <v>0.150049219519055</v>
-      </c>
-      <c r="J81" s="17">
-        <v>0.184910653878298</v>
-      </c>
-      <c r="L81" s="17">
-        <v>0.15657988736804501</v>
-      </c>
-      <c r="N81" s="18">
-        <v>-3.4861434359243298E-2</v>
-      </c>
-      <c r="Q81" s="9">
-        <v>-6.5306678489900601E-3</v>
-      </c>
-    </row>
-    <row r="82" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B82" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C82" s="5">
-        <v>2</v>
-      </c>
-      <c r="D82" s="15">
-        <v>9804</v>
-      </c>
-      <c r="E82" s="8">
-        <v>232762</v>
-      </c>
-      <c r="G82" s="8">
-        <v>402237</v>
-      </c>
-      <c r="I82" s="17">
-        <v>0.45956968077626198</v>
-      </c>
-      <c r="J82" s="17">
-        <v>0.46317109085843899</v>
-      </c>
-      <c r="L82" s="17">
-        <v>0.38212499715000098</v>
-      </c>
-      <c r="N82" s="18">
-        <v>-3.6014100821769599E-3</v>
-      </c>
-      <c r="Q82" s="9">
-        <v>7.7444683626261002E-2</v>
-      </c>
-    </row>
-    <row r="83" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B83" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C83" s="5">
-        <v>3</v>
-      </c>
-      <c r="D83" s="15">
-        <v>3582</v>
-      </c>
-      <c r="E83" s="8">
-        <v>78312</v>
-      </c>
-      <c r="G83" s="8">
-        <v>205089</v>
-      </c>
-      <c r="I83" s="17">
-        <v>0.16790887357615</v>
-      </c>
-      <c r="J83" s="17">
-        <v>0.155832371552513</v>
-      </c>
-      <c r="L83" s="17">
-        <v>0.19483447206621099</v>
-      </c>
-      <c r="N83" s="18">
-        <v>1.20765020236364E-2</v>
-      </c>
-      <c r="Q83" s="9">
-        <v>-2.6925598490061601E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B84" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C84" s="5">
-        <v>4</v>
-      </c>
-      <c r="D84" s="15">
-        <v>3407</v>
-      </c>
-      <c r="E84" s="8">
-        <v>67126</v>
-      </c>
-      <c r="G84" s="8">
-        <v>178434</v>
-      </c>
-      <c r="I84" s="17">
-        <v>0.15970562040031899</v>
-      </c>
-      <c r="J84" s="17">
-        <v>0.1335734468898</v>
-      </c>
-      <c r="L84" s="17">
-        <v>0.169512232195107</v>
-      </c>
-      <c r="N84" s="18">
-        <v>2.61321735105189E-2</v>
-      </c>
-      <c r="Q84" s="9">
-        <v>-9.8066117947883703E-3</v>
-      </c>
-    </row>
-    <row r="85" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B85" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D85" s="15">
-        <v>1286</v>
-      </c>
-      <c r="E85" s="8">
-        <v>26863</v>
-      </c>
-      <c r="G85" s="8">
-        <v>95640</v>
-      </c>
-      <c r="I85" s="17">
-        <v>6.0282191909248599E-2</v>
-      </c>
-      <c r="J85" s="17">
-        <v>5.3454451386954302E-2</v>
-      </c>
-      <c r="L85" s="17">
-        <v>9.0857963656814505E-2</v>
-      </c>
-      <c r="N85" s="18">
-        <v>6.8277405222943099E-3</v>
-      </c>
-      <c r="Q85" s="9">
-        <v>-3.05757717475659E-2</v>
-      </c>
-    </row>
-    <row r="86" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B86" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C86" s="5" t="s">
+      <c r="C86" s="5"/>
+      <c r="D86" s="15">
+        <v>15</v>
+      </c>
+      <c r="E86" s="8">
+        <v>2431</v>
+      </c>
+      <c r="I86" s="17">
+        <v>7.03135986499789E-4</v>
+      </c>
+      <c r="J86" s="17">
+        <v>4.8374258765471398E-3</v>
+      </c>
+      <c r="N86" s="18">
+        <v>-4.1342898900473503E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B87" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C87" s="5">
+        <v>1</v>
+      </c>
+      <c r="D87" s="15">
+        <v>3201</v>
+      </c>
+      <c r="E87" s="8">
+        <v>92925</v>
+      </c>
+      <c r="F87" s="8">
+        <v>164821</v>
+      </c>
+      <c r="I87" s="17">
+        <v>0.150049219519055</v>
+      </c>
+      <c r="J87" s="17">
+        <v>0.184910653878298</v>
+      </c>
+      <c r="K87" s="17">
+        <v>0.15657988736804501</v>
+      </c>
+      <c r="N87" s="18">
+        <v>-3.4861434359243298E-2</v>
+      </c>
+      <c r="O87" s="9">
+        <v>-6.5306678489900601E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B88" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C88" s="5">
+        <v>2</v>
+      </c>
+      <c r="D88" s="15">
+        <v>9804</v>
+      </c>
+      <c r="E88" s="8">
+        <v>232762</v>
+      </c>
+      <c r="F88" s="8">
+        <v>402237</v>
+      </c>
+      <c r="I88" s="17">
+        <v>0.45956968077626198</v>
+      </c>
+      <c r="J88" s="17">
+        <v>0.46317109085843899</v>
+      </c>
+      <c r="K88" s="17">
+        <v>0.38212499715000098</v>
+      </c>
+      <c r="N88" s="18">
+        <v>-3.6014100821769599E-3</v>
+      </c>
+      <c r="O88" s="9">
+        <v>7.7444683626261002E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B89" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C89" s="5">
+        <v>3</v>
+      </c>
+      <c r="D89" s="15">
+        <v>3582</v>
+      </c>
+      <c r="E89" s="8">
+        <v>78312</v>
+      </c>
+      <c r="F89" s="8">
+        <v>205089</v>
+      </c>
+      <c r="I89" s="17">
+        <v>0.16790887357615</v>
+      </c>
+      <c r="J89" s="17">
+        <v>0.155832371552513</v>
+      </c>
+      <c r="K89" s="17">
+        <v>0.19483447206621099</v>
+      </c>
+      <c r="N89" s="18">
+        <v>1.20765020236364E-2</v>
+      </c>
+      <c r="O89" s="9">
+        <v>-2.6925598490061601E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B90" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C90" s="5">
+        <v>4</v>
+      </c>
+      <c r="D90" s="15">
+        <v>3407</v>
+      </c>
+      <c r="E90" s="8">
+        <v>67126</v>
+      </c>
+      <c r="F90" s="8">
+        <v>178434</v>
+      </c>
+      <c r="I90" s="17">
+        <v>0.15970562040031899</v>
+      </c>
+      <c r="J90" s="17">
+        <v>0.1335734468898</v>
+      </c>
+      <c r="K90" s="17">
+        <v>0.169512232195107</v>
+      </c>
+      <c r="N90" s="18">
+        <v>2.61321735105189E-2</v>
+      </c>
+      <c r="O90" s="9">
+        <v>-9.8066117947883703E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B91" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D91" s="15">
+        <v>1286</v>
+      </c>
+      <c r="E91" s="8">
+        <v>26863</v>
+      </c>
+      <c r="F91" s="8">
+        <v>95640</v>
+      </c>
+      <c r="I91" s="17">
+        <v>6.0282191909248599E-2</v>
+      </c>
+      <c r="J91" s="17">
+        <v>5.3454451386954302E-2</v>
+      </c>
+      <c r="K91" s="17">
+        <v>9.0857963656814505E-2</v>
+      </c>
+      <c r="N91" s="18">
+        <v>6.8277405222943099E-3</v>
+      </c>
+      <c r="O91" s="9">
+        <v>-3.05757717475659E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="2:17" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B92" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C92" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="D86" s="15">
+      <c r="D92" s="32">
         <v>38</v>
       </c>
-      <c r="E86" s="8">
+      <c r="E92" s="33">
         <v>2121</v>
       </c>
-      <c r="G86" s="8">
+      <c r="F92" s="33">
         <v>6411</v>
       </c>
-      <c r="I86" s="17">
+      <c r="G92" s="33"/>
+      <c r="H92" s="34"/>
+      <c r="I92" s="35">
         <v>1.78127783246613E-3</v>
       </c>
-      <c r="J86" s="17">
+      <c r="J92" s="35">
         <v>4.2205595574481601E-3</v>
       </c>
-      <c r="L86" s="17">
+      <c r="K92" s="35">
         <v>6.0904475638209696E-3</v>
       </c>
-      <c r="N86" s="18">
+      <c r="L92" s="35"/>
+      <c r="M92" s="35"/>
+      <c r="N92" s="36">
         <v>-2.4392817249820299E-3</v>
       </c>
-      <c r="Q86" s="9">
+      <c r="O92" s="37">
         <v>-4.3091697313548403E-3</v>
       </c>
-    </row>
-    <row r="87" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B87" s="4" t="s">
+      <c r="P92" s="37"/>
+      <c r="Q92" s="38"/>
+    </row>
+    <row r="93" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B93" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C87" s="5" t="s">
+      <c r="C93" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D87" s="15">
+      <c r="D93" s="15">
         <v>2448</v>
       </c>
-      <c r="E87" s="8">
+      <c r="E93" s="8">
         <v>97208</v>
       </c>
-      <c r="H87" s="16">
+      <c r="G93" s="8">
+        <v>735.62687929009599</v>
+      </c>
+      <c r="H93" s="16">
         <v>314.743124431306</v>
       </c>
-      <c r="I87" s="17">
+      <c r="I93" s="17">
         <v>0.11475179299676599</v>
       </c>
-      <c r="J87" s="17">
+      <c r="J93" s="17">
         <v>0.19343335853862401</v>
       </c>
-      <c r="M87" s="17">
+      <c r="L93" s="17">
+        <v>0.26951908544217201</v>
+      </c>
+      <c r="M93" s="17">
         <v>0.134370535981643</v>
       </c>
-      <c r="N87" s="18">
+      <c r="N93" s="18">
         <v>-7.8681565541858206E-2</v>
       </c>
-      <c r="R87" s="19">
+      <c r="P93" s="9">
+        <v>-0.15476729244540699</v>
+      </c>
+      <c r="Q93" s="19">
         <v>-1.9618742984877899E-2</v>
       </c>
     </row>
-    <row r="88" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B88" s="4" t="s">
+    <row r="94" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B94" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C88" s="5" t="s">
+      <c r="C94" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D88" s="15">
+      <c r="D94" s="15">
         <v>4452</v>
       </c>
-      <c r="E88" s="8">
+      <c r="E94" s="8">
         <v>108179</v>
       </c>
-      <c r="H88" s="16">
+      <c r="G94" s="8">
+        <v>589.78408112571799</v>
+      </c>
+      <c r="H94" s="16">
         <v>530.52595638621597</v>
       </c>
-      <c r="I88" s="17">
+      <c r="I94" s="17">
         <v>0.208690760793137</v>
       </c>
-      <c r="J88" s="17">
+      <c r="J94" s="17">
         <v>0.215264456560672</v>
       </c>
-      <c r="M88" s="17">
+      <c r="L94" s="17">
+        <v>0.216085179359889</v>
+      </c>
+      <c r="M94" s="17">
         <v>0.22649281772427901</v>
       </c>
-      <c r="N88" s="18">
+      <c r="N94" s="18">
         <v>-6.5736957675343903E-3</v>
       </c>
-      <c r="R88" s="19">
+      <c r="P94" s="9">
+        <v>-7.3944185667511901E-3</v>
+      </c>
+      <c r="Q94" s="19">
         <v>-1.7802056931141699E-2</v>
       </c>
     </row>
-    <row r="89" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B89" s="4" t="s">
+    <row r="95" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B95" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C89" s="5" t="s">
+      <c r="C95" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D89" s="15">
+      <c r="D95" s="15">
         <v>5983</v>
       </c>
-      <c r="E89" s="8">
+      <c r="E95" s="8">
         <v>110776</v>
       </c>
-      <c r="H89" s="16">
+      <c r="G95" s="8">
+        <v>443.018914198125</v>
+      </c>
+      <c r="H95" s="16">
         <v>410.82936968533301</v>
       </c>
-      <c r="I89" s="17">
+      <c r="I95" s="17">
         <v>0.280457507148549</v>
       </c>
-      <c r="J89" s="17">
+      <c r="J95" s="17">
         <v>0.22043220440163999</v>
       </c>
-      <c r="M89" s="17">
+      <c r="L95" s="17">
+        <v>0.162313335672957</v>
+      </c>
+      <c r="M95" s="17">
         <v>0.17539179831605001</v>
       </c>
-      <c r="N89" s="18">
+      <c r="N95" s="18">
         <v>6.0025302746909599E-2</v>
       </c>
-      <c r="R89" s="19">
+      <c r="P95" s="9">
+        <v>0.118144171475593</v>
+      </c>
+      <c r="Q95" s="19">
         <v>0.10506570883249899</v>
       </c>
     </row>
-    <row r="90" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B90" s="4" t="s">
+    <row r="96" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B96" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C90" s="5" t="s">
+      <c r="C96" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D90" s="15">
+      <c r="D96" s="15">
         <v>5109</v>
       </c>
-      <c r="E90" s="8">
+      <c r="E96" s="8">
         <v>86272</v>
       </c>
-      <c r="H90" s="16">
+      <c r="G96" s="8">
+        <v>356.26765030099</v>
+      </c>
+      <c r="H96" s="16">
         <v>548.36921812620199</v>
       </c>
-      <c r="I90" s="17">
+      <c r="I96" s="17">
         <v>0.23948811700182801</v>
       </c>
-      <c r="J90" s="17">
+      <c r="J96" s="17">
         <v>0.17167190671389301</v>
       </c>
-      <c r="M90" s="17">
+      <c r="L96" s="17">
+        <v>0.13052939470403499</v>
+      </c>
+      <c r="M96" s="17">
         <v>0.234110485776583</v>
       </c>
-      <c r="N90" s="18">
+      <c r="N96" s="18">
         <v>6.7816210287934706E-2</v>
       </c>
-      <c r="R90" s="19">
+      <c r="P96" s="9">
+        <v>0.10895872229779301</v>
+      </c>
+      <c r="Q96" s="19">
         <v>5.3776312252450404E-3</v>
       </c>
     </row>
-    <row r="91" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B91" s="4" t="s">
+    <row r="97" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B97" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C91" s="5" t="s">
+      <c r="C97" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D91" s="15">
+      <c r="D97" s="15">
         <v>1166</v>
       </c>
-      <c r="E91" s="8">
+      <c r="E97" s="8">
         <v>22932</v>
       </c>
-      <c r="H91" s="16">
+      <c r="G97" s="8">
+        <v>166.55466713814101</v>
+      </c>
+      <c r="H97" s="16">
         <v>77.668799214259593</v>
       </c>
-      <c r="I91" s="17">
+      <c r="I97" s="17">
         <v>5.4657104017250303E-2</v>
       </c>
-      <c r="J91" s="17">
+      <c r="J97" s="17">
         <v>4.5632188482508898E-2</v>
       </c>
-      <c r="M91" s="17">
+      <c r="L97" s="17">
+        <v>6.1022323717313399E-2</v>
+      </c>
+      <c r="M97" s="17">
         <v>3.3158462788751099E-2</v>
       </c>
-      <c r="N91" s="18">
+      <c r="N97" s="18">
         <v>9.0249155347414105E-3</v>
       </c>
-      <c r="R91" s="19">
+      <c r="P97" s="9">
+        <v>-6.3652197000631204E-3</v>
+      </c>
+      <c r="Q97" s="19">
         <v>2.14986412284991E-2</v>
       </c>
     </row>
-    <row r="92" spans="2:18" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B92" s="30" t="s">
+    <row r="98" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B98" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C92" s="31" t="s">
+      <c r="C98" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D92" s="32">
+      <c r="D98" s="15">
         <v>2175</v>
       </c>
-      <c r="E92" s="33">
+      <c r="E98" s="8">
         <v>77173</v>
       </c>
-      <c r="F92" s="33"/>
-      <c r="G92" s="33"/>
-      <c r="H92" s="34">
+      <c r="H98" s="16">
         <v>460.21576087967702</v>
       </c>
-      <c r="I92" s="35">
+      <c r="I98" s="17">
         <v>0.101954718042469</v>
       </c>
-      <c r="J92" s="35">
+      <c r="J98" s="17">
         <v>0.15356588530266199</v>
       </c>
-      <c r="K92" s="35"/>
-      <c r="L92" s="35"/>
-      <c r="M92" s="35">
+      <c r="M98" s="17">
         <v>0.196475899412693</v>
       </c>
-      <c r="N92" s="36">
+      <c r="N98" s="18">
         <v>-5.1611167260192999E-2</v>
       </c>
-      <c r="O92" s="37"/>
-      <c r="P92" s="37"/>
-      <c r="Q92" s="37"/>
-      <c r="R92" s="38">
+      <c r="Q98" s="19">
         <v>-9.4521181370224E-2</v>
       </c>
     </row>
-    <row r="93" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B93" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D93" s="15">
-        <v>2758</v>
-      </c>
-      <c r="E93" s="8">
-        <v>49905</v>
-      </c>
-      <c r="G93" s="8">
-        <v>93072</v>
-      </c>
-      <c r="H93" s="16">
-        <v>154.69863656537601</v>
-      </c>
-      <c r="I93" s="17">
-        <v>0.129283270051095</v>
-      </c>
-      <c r="J93" s="17">
-        <v>9.9305527918175707E-2</v>
-      </c>
-      <c r="L93" s="17">
-        <v>8.8418364632654206E-2</v>
-      </c>
-      <c r="M93" s="17">
-        <v>6.6044139164208801E-2</v>
-      </c>
-      <c r="N93" s="18">
-        <v>2.99777421329189E-2</v>
-      </c>
-      <c r="Q93" s="9">
-        <v>4.08649054184404E-2</v>
-      </c>
-      <c r="R93" s="19">
-        <v>6.3239130886885694E-2</v>
-      </c>
-    </row>
-    <row r="94" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B94" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D94" s="15">
-        <v>4274</v>
-      </c>
-      <c r="E94" s="8">
-        <v>65512</v>
-      </c>
-      <c r="G94" s="8">
-        <v>126167</v>
-      </c>
-      <c r="H94" s="16">
-        <v>323.96878408198501</v>
-      </c>
-      <c r="I94" s="17">
-        <v>0.20034688042000701</v>
-      </c>
-      <c r="J94" s="17">
-        <v>0.13036176224778101</v>
-      </c>
-      <c r="L94" s="17">
-        <v>0.119858602056559</v>
-      </c>
-      <c r="M94" s="17">
-        <v>0.138309166362485</v>
-      </c>
-      <c r="N94" s="18">
-        <v>6.9985118172225302E-2</v>
-      </c>
-      <c r="Q94" s="9">
-        <v>8.0488278363447394E-2</v>
-      </c>
-      <c r="R94" s="19">
-        <v>6.2037714057521898E-2</v>
-      </c>
-    </row>
-    <row r="95" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B95" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D95" s="15">
-        <v>2914</v>
-      </c>
-      <c r="E95" s="8">
-        <v>50766</v>
-      </c>
-      <c r="G95" s="8">
-        <v>80503</v>
-      </c>
-      <c r="H95" s="16">
-        <v>193.57415707013001</v>
-      </c>
-      <c r="I95" s="17">
-        <v>0.136595884310692</v>
-      </c>
-      <c r="J95" s="17">
-        <v>0.101018824372189</v>
-      </c>
-      <c r="L95" s="17">
-        <v>7.6477819408872202E-2</v>
-      </c>
-      <c r="M95" s="17">
-        <v>8.2640925944627394E-2</v>
-      </c>
-      <c r="N95" s="18">
-        <v>3.5577059938503103E-2</v>
-      </c>
-      <c r="Q95" s="9">
-        <v>6.0118064901820097E-2</v>
-      </c>
-      <c r="R95" s="19">
-        <v>5.3954958366064898E-2</v>
-      </c>
-    </row>
-    <row r="96" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B96" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D96" s="15">
-        <v>2094</v>
-      </c>
-      <c r="E96" s="8">
-        <v>43742</v>
-      </c>
-      <c r="G96" s="8">
-        <v>89962</v>
-      </c>
-      <c r="H96" s="16">
-        <v>173.01265271862499</v>
-      </c>
-      <c r="I96" s="17">
-        <v>9.8157783715370595E-2</v>
-      </c>
-      <c r="J96" s="17">
-        <v>8.7041827516217599E-2</v>
-      </c>
-      <c r="L96" s="17">
-        <v>8.5463865814453699E-2</v>
-      </c>
-      <c r="M96" s="17">
-        <v>7.3862782290837897E-2</v>
-      </c>
-      <c r="N96" s="18">
-        <v>1.1115956199152901E-2</v>
-      </c>
-      <c r="Q96" s="9">
-        <v>1.2693917900916901E-2</v>
-      </c>
-      <c r="R96" s="19">
-        <v>2.42950014245326E-2</v>
-      </c>
-    </row>
-    <row r="97" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B97" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D97" s="15">
-        <v>668</v>
-      </c>
-      <c r="E97" s="8">
-        <v>21176</v>
-      </c>
-      <c r="G97" s="8">
-        <v>90085</v>
-      </c>
-      <c r="H97" s="16">
-        <v>171.18451745456099</v>
-      </c>
-      <c r="I97" s="17">
-        <v>3.1312989265457301E-2</v>
-      </c>
-      <c r="J97" s="17">
-        <v>4.2137939268515903E-2</v>
-      </c>
-      <c r="L97" s="17">
-        <v>8.55807157677137E-2</v>
-      </c>
-      <c r="M97" s="17">
-        <v>7.3082312453019604E-2</v>
-      </c>
-      <c r="N97" s="18">
-        <v>-1.0824950003058701E-2</v>
-      </c>
-      <c r="Q97" s="9">
-        <v>-5.4267726502256398E-2</v>
-      </c>
-      <c r="R97" s="19">
-        <v>-4.1769323187562303E-2</v>
-      </c>
-    </row>
-    <row r="98" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B98" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D98" s="15">
-        <v>711</v>
-      </c>
-      <c r="E98" s="8">
-        <v>17877</v>
-      </c>
-      <c r="G98" s="8">
-        <v>66840</v>
-      </c>
-      <c r="H98" s="16">
-        <v>153.83736832461801</v>
-      </c>
-      <c r="I98" s="17">
-        <v>3.3328645760090002E-2</v>
-      </c>
-      <c r="J98" s="17">
-        <v>3.5573287698491697E-2</v>
-      </c>
-      <c r="L98" s="17">
-        <v>6.3497974600810206E-2</v>
-      </c>
-      <c r="M98" s="17">
-        <v>6.5676445428741903E-2</v>
-      </c>
-      <c r="N98" s="18">
-        <v>-2.2446419384016601E-3</v>
-      </c>
-      <c r="Q98" s="9">
-        <v>-3.0169328840720201E-2</v>
-      </c>
-      <c r="R98" s="19">
-        <v>-3.2347799668651901E-2</v>
-      </c>
-    </row>
-    <row r="99" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B99" s="4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D99" s="15">
-        <v>349</v>
-      </c>
-      <c r="E99" s="8">
-        <v>9996</v>
+        <v>18</v>
       </c>
       <c r="G99" s="8">
-        <v>44945</v>
-      </c>
-      <c r="H99" s="16">
-        <v>80.1673660761641</v>
-      </c>
-      <c r="I99" s="17">
-        <v>1.6359630619228401E-2</v>
-      </c>
-      <c r="J99" s="17">
-        <v>1.98909539539141E-2</v>
+        <v>438.15332697808901</v>
       </c>
       <c r="L99" s="17">
-        <v>4.2697732920906797E-2</v>
-      </c>
-      <c r="M99" s="17">
-        <v>3.4225154139123602E-2</v>
-      </c>
-      <c r="N99" s="18">
-        <v>-3.53132333468569E-3</v>
-      </c>
-      <c r="Q99" s="9">
-        <v>-2.63381023016784E-2</v>
-      </c>
-      <c r="R99" s="19">
-        <v>-1.7865523519895201E-2</v>
-      </c>
-    </row>
-    <row r="100" spans="2:18" x14ac:dyDescent="0.2">
+        <v>0.160530681103634</v>
+      </c>
+    </row>
+    <row r="100" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B100" s="4" t="s">
         <v>74</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D100" s="15">
-        <v>436</v>
+        <v>2758</v>
       </c>
       <c r="E100" s="8">
-        <v>12973</v>
+        <v>49905</v>
+      </c>
+      <c r="F100" s="8">
+        <v>93072</v>
       </c>
       <c r="G100" s="8">
-        <v>64846</v>
+        <v>260.615586088675</v>
       </c>
       <c r="H100" s="16">
-        <v>128.76537031548099</v>
+        <v>154.69863656537601</v>
       </c>
       <c r="I100" s="17">
-        <v>2.0437819340927199E-2</v>
+        <v>0.129283270051095</v>
       </c>
       <c r="J100" s="17">
-        <v>2.58148605086162E-2</v>
+        <v>9.9305527918175707E-2</v>
+      </c>
+      <c r="K100" s="17">
+        <v>8.8418364632654206E-2</v>
       </c>
       <c r="L100" s="17">
-        <v>6.1603675358529897E-2</v>
+        <v>9.5484377191845202E-2</v>
       </c>
       <c r="M100" s="17">
-        <v>5.4972676071728899E-2</v>
+        <v>6.6044139164208801E-2</v>
       </c>
       <c r="N100" s="18">
-        <v>-5.3770411676890301E-3</v>
-      </c>
-      <c r="Q100" s="9">
-        <v>-4.1165856017602698E-2</v>
-      </c>
-      <c r="R100" s="19">
-        <v>-3.45348567308017E-2</v>
-      </c>
-    </row>
-    <row r="101" spans="2:18" x14ac:dyDescent="0.2">
+        <v>2.99777421329189E-2</v>
+      </c>
+      <c r="O100" s="9">
+        <v>4.08649054184404E-2</v>
+      </c>
+      <c r="P100" s="9">
+        <v>3.3798892859249301E-2</v>
+      </c>
+      <c r="Q100" s="19">
+        <v>6.3239130886885694E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B101" s="4" t="s">
         <v>74</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D101" s="15">
-        <v>357</v>
+        <v>4274</v>
       </c>
       <c r="E101" s="8">
-        <v>14388</v>
+        <v>65512</v>
+      </c>
+      <c r="F101" s="8">
+        <v>126167</v>
       </c>
       <c r="G101" s="8">
-        <v>76902</v>
+        <v>474.16803422035298</v>
       </c>
       <c r="H101" s="16">
-        <v>165.146704382335</v>
+        <v>323.96878408198501</v>
       </c>
       <c r="I101" s="17">
-        <v>1.6734636478695001E-2</v>
+        <v>0.20034688042000701</v>
       </c>
       <c r="J101" s="17">
-        <v>2.8630556771600299E-2</v>
+        <v>0.13036176224778101</v>
+      </c>
+      <c r="K101" s="17">
+        <v>0.119858602056559</v>
       </c>
       <c r="L101" s="17">
-        <v>7.3056870777251703E-2</v>
+        <v>0.17372575489942799</v>
       </c>
       <c r="M101" s="17">
-        <v>7.0504641597975898E-2</v>
+        <v>0.138309166362485</v>
       </c>
       <c r="N101" s="18">
-        <v>-1.18959202929053E-2</v>
-      </c>
-      <c r="Q101" s="9">
-        <v>-5.6322234298556699E-2</v>
-      </c>
-      <c r="R101" s="19">
-        <v>-5.3770005119280997E-2</v>
-      </c>
-    </row>
-    <row r="102" spans="2:18" s="39" customFormat="1" x14ac:dyDescent="0.2">
+        <v>6.9985118172225302E-2</v>
+      </c>
+      <c r="O101" s="9">
+        <v>8.0488278363447394E-2</v>
+      </c>
+      <c r="P101" s="9">
+        <v>2.66211255205786E-2</v>
+      </c>
+      <c r="Q101" s="19">
+        <v>6.2037714057521898E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="2:17" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B102" s="30" t="s">
         <v>74</v>
       </c>
       <c r="C102" s="31" t="s">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="D102" s="32">
-        <v>6750</v>
+        <v>2914</v>
       </c>
       <c r="E102" s="33">
-        <v>215366</v>
-      </c>
-      <c r="F102" s="33"/>
+        <v>50766</v>
+      </c>
+      <c r="F102" s="33">
+        <v>80503</v>
+      </c>
       <c r="G102" s="33">
-        <v>317427</v>
+        <v>291.37277627653202</v>
       </c>
       <c r="H102" s="34">
-        <v>797.04596311067098</v>
+        <v>193.57415707013001</v>
       </c>
       <c r="I102" s="35">
-        <v>0.31641119392490502</v>
+        <v>0.136595884310692</v>
       </c>
       <c r="J102" s="35">
-        <v>0.428554940900227</v>
-      </c>
-      <c r="K102" s="35"/>
+        <v>0.101018824372189</v>
+      </c>
+      <c r="K102" s="35">
+        <v>7.6477819408872202E-2</v>
+      </c>
       <c r="L102" s="35">
-        <v>0.30155552937778801</v>
+        <v>0.106753201107309</v>
       </c>
       <c r="M102" s="35">
-        <v>0.34027587880973997</v>
+        <v>8.2640925944627394E-2</v>
       </c>
       <c r="N102" s="36">
-        <v>-0.11214374697532201</v>
-      </c>
-      <c r="O102" s="37"/>
-      <c r="P102" s="37"/>
-      <c r="Q102" s="37">
-        <v>1.4855664547116801E-2</v>
-      </c>
-      <c r="R102" s="38">
-        <v>-2.3864684884835299E-2</v>
-      </c>
-    </row>
-    <row r="103" spans="2:18" x14ac:dyDescent="0.2">
+        <v>3.5577059938503103E-2</v>
+      </c>
+      <c r="O102" s="37">
+        <v>6.0118064901820097E-2</v>
+      </c>
+      <c r="P102" s="37">
+        <v>2.98426832033836E-2</v>
+      </c>
+      <c r="Q102" s="38">
+        <v>5.3954958366064898E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B103" s="4" t="s">
         <v>74</v>
       </c>
       <c r="C103" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D103" s="15">
+        <v>2094</v>
+      </c>
+      <c r="E103" s="8">
+        <v>43742</v>
+      </c>
+      <c r="F103" s="8">
+        <v>89962</v>
+      </c>
+      <c r="G103" s="8">
+        <v>349.15429419927199</v>
+      </c>
+      <c r="H103" s="16">
+        <v>173.01265271862499</v>
+      </c>
+      <c r="I103" s="17">
+        <v>9.8157783715370595E-2</v>
+      </c>
+      <c r="J103" s="17">
+        <v>8.7041827516217599E-2</v>
+      </c>
+      <c r="K103" s="17">
+        <v>8.5463865814453699E-2</v>
+      </c>
+      <c r="L103" s="17">
+        <v>0.127923202237537</v>
+      </c>
+      <c r="M103" s="17">
+        <v>7.3862782290837897E-2</v>
+      </c>
+      <c r="N103" s="18">
+        <v>1.1115956199152901E-2</v>
+      </c>
+      <c r="O103" s="9">
+        <v>1.2693917900916901E-2</v>
+      </c>
+      <c r="P103" s="9">
+        <v>-2.9765418522166201E-2</v>
+      </c>
+      <c r="Q103" s="19">
+        <v>2.42950014245326E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B104" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D104" s="15">
+        <v>668</v>
+      </c>
+      <c r="E104" s="8">
+        <v>21176</v>
+      </c>
+      <c r="F104" s="8">
+        <v>90085</v>
+      </c>
+      <c r="G104" s="8">
+        <v>312.45418074686199</v>
+      </c>
+      <c r="H104" s="16">
+        <v>171.18451745456099</v>
+      </c>
+      <c r="I104" s="17">
+        <v>3.1312989265457301E-2</v>
+      </c>
+      <c r="J104" s="17">
+        <v>4.2137939268515903E-2</v>
+      </c>
+      <c r="K104" s="17">
+        <v>8.55807157677137E-2</v>
+      </c>
+      <c r="L104" s="17">
+        <v>0.114477009212531</v>
+      </c>
+      <c r="M104" s="17">
+        <v>7.3082312453019604E-2</v>
+      </c>
+      <c r="N104" s="18">
+        <v>-1.0824950003058701E-2</v>
+      </c>
+      <c r="O104" s="9">
+        <v>-5.4267726502256398E-2</v>
+      </c>
+      <c r="P104" s="9">
+        <v>-8.31640199470733E-2</v>
+      </c>
+      <c r="Q104" s="19">
+        <v>-4.1769323187562303E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B105" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D105" s="15">
+        <v>711</v>
+      </c>
+      <c r="E105" s="8">
+        <v>17877</v>
+      </c>
+      <c r="F105" s="8">
+        <v>66840</v>
+      </c>
+      <c r="G105" s="8">
+        <v>234.58087416522301</v>
+      </c>
+      <c r="H105" s="16">
+        <v>153.83736832461801</v>
+      </c>
+      <c r="I105" s="17">
+        <v>3.3328645760090002E-2</v>
+      </c>
+      <c r="J105" s="17">
+        <v>3.5573287698491697E-2</v>
+      </c>
+      <c r="K105" s="17">
+        <v>6.3497974600810206E-2</v>
+      </c>
+      <c r="L105" s="17">
+        <v>8.5945775565255997E-2</v>
+      </c>
+      <c r="M105" s="17">
+        <v>6.5676445428741903E-2</v>
+      </c>
+      <c r="N105" s="18">
+        <v>-2.2446419384016601E-3</v>
+      </c>
+      <c r="O105" s="9">
+        <v>-3.0169328840720201E-2</v>
+      </c>
+      <c r="P105" s="9">
+        <v>-5.2617129805166002E-2</v>
+      </c>
+      <c r="Q105" s="19">
+        <v>-3.2347799668651901E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B106" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D106" s="15">
+        <v>349</v>
+      </c>
+      <c r="E106" s="8">
+        <v>9996</v>
+      </c>
+      <c r="F106" s="8">
+        <v>44945</v>
+      </c>
+      <c r="G106" s="8">
+        <v>168.823667096674</v>
+      </c>
+      <c r="H106" s="16">
+        <v>80.1673660761641</v>
+      </c>
+      <c r="I106" s="17">
+        <v>1.6359630619228401E-2</v>
+      </c>
+      <c r="J106" s="17">
+        <v>1.98909539539141E-2</v>
+      </c>
+      <c r="K106" s="17">
+        <v>4.2697732920906797E-2</v>
+      </c>
+      <c r="L106" s="17">
+        <v>6.1853640259583002E-2</v>
+      </c>
+      <c r="M106" s="17">
+        <v>3.4225154139123602E-2</v>
+      </c>
+      <c r="N106" s="18">
+        <v>-3.53132333468569E-3</v>
+      </c>
+      <c r="O106" s="9">
+        <v>-2.63381023016784E-2</v>
+      </c>
+      <c r="P106" s="9">
+        <v>-4.5494009640354598E-2</v>
+      </c>
+      <c r="Q106" s="19">
+        <v>-1.7865523519895201E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B107" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D107" s="15">
+        <v>436</v>
+      </c>
+      <c r="E107" s="8">
+        <v>12973</v>
+      </c>
+      <c r="F107" s="8">
+        <v>64846</v>
+      </c>
+      <c r="G107" s="8">
+        <v>261.18504108818399</v>
+      </c>
+      <c r="H107" s="16">
+        <v>128.76537031548099</v>
+      </c>
+      <c r="I107" s="17">
+        <v>2.0437819340927199E-2</v>
+      </c>
+      <c r="J107" s="17">
+        <v>2.58148605086162E-2</v>
+      </c>
+      <c r="K107" s="17">
+        <v>6.1603675358529897E-2</v>
+      </c>
+      <c r="L107" s="17">
+        <v>9.5693014199258797E-2</v>
+      </c>
+      <c r="M107" s="17">
+        <v>5.4972676071728899E-2</v>
+      </c>
+      <c r="N107" s="18">
+        <v>-5.3770411676890301E-3</v>
+      </c>
+      <c r="O107" s="9">
+        <v>-4.1165856017602698E-2</v>
+      </c>
+      <c r="P107" s="9">
+        <v>-7.5255194858331598E-2</v>
+      </c>
+      <c r="Q107" s="19">
+        <v>-3.45348567308017E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B108" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D108" s="15">
+        <v>357</v>
+      </c>
+      <c r="E108" s="8">
+        <v>14388</v>
+      </c>
+      <c r="F108" s="8">
+        <v>76902</v>
+      </c>
+      <c r="G108" s="8">
+        <v>323.66236929241597</v>
+      </c>
+      <c r="H108" s="16">
+        <v>165.146704382335</v>
+      </c>
+      <c r="I108" s="17">
+        <v>1.6734636478695001E-2</v>
+      </c>
+      <c r="J108" s="17">
+        <v>2.8630556771600299E-2</v>
+      </c>
+      <c r="K108" s="17">
+        <v>7.3056870777251703E-2</v>
+      </c>
+      <c r="L108" s="17">
+        <v>0.118583466998815</v>
+      </c>
+      <c r="M108" s="17">
+        <v>7.0504641597975898E-2</v>
+      </c>
+      <c r="N108" s="18">
+        <v>-1.18959202929053E-2</v>
+      </c>
+      <c r="O108" s="9">
+        <v>-5.6322234298556699E-2</v>
+      </c>
+      <c r="P108" s="9">
+        <v>-0.10184883052012</v>
+      </c>
+      <c r="Q108" s="19">
+        <v>-5.3770005119280997E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B109" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D109" s="15">
+        <v>6750</v>
+      </c>
+      <c r="E109" s="8">
+        <v>215366</v>
+      </c>
+      <c r="F109" s="8">
+        <v>317427</v>
+      </c>
+      <c r="G109" s="8">
+        <v>51.9181487593467</v>
+      </c>
+      <c r="H109" s="16">
+        <v>797.04596311067098</v>
+      </c>
+      <c r="I109" s="17">
+        <v>0.31641119392490502</v>
+      </c>
+      <c r="J109" s="17">
+        <v>0.428554940900227</v>
+      </c>
+      <c r="K109" s="17">
+        <v>0.30155552937778801</v>
+      </c>
+      <c r="L109" s="17">
+        <v>1.9021779064100301E-2</v>
+      </c>
+      <c r="M109" s="17">
+        <v>0.34027587880973997</v>
+      </c>
+      <c r="N109" s="18">
+        <v>-0.11214374697532201</v>
+      </c>
+      <c r="O109" s="9">
+        <v>1.4855664547116801E-2</v>
+      </c>
+      <c r="P109" s="9">
+        <v>0.297389414860805</v>
+      </c>
+      <c r="Q109" s="19">
+        <v>-2.3864684884835299E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B110" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C110" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D103" s="15">
+      <c r="D110" s="15">
         <v>22</v>
       </c>
-      <c r="E103" s="8">
+      <c r="E110" s="8">
         <v>839</v>
       </c>
-      <c r="G103" s="8">
+      <c r="F110" s="8">
         <v>1883</v>
       </c>
-      <c r="H103" s="16">
+      <c r="G110" s="8">
+        <v>1.47054709762153</v>
+      </c>
+      <c r="H110" s="16">
         <v>0.95070862304770498</v>
       </c>
-      <c r="I103" s="17">
+      <c r="I110" s="17">
         <v>1.0312661135330201E-3</v>
       </c>
-      <c r="J103" s="17">
+      <c r="J110" s="17">
         <v>1.6695188442710999E-3</v>
       </c>
-      <c r="L103" s="17">
+      <c r="K110" s="17">
         <v>1.7888492844602901E-3</v>
       </c>
-      <c r="M103" s="17">
+      <c r="L110" s="17">
+        <v>5.3877926433721095E-4</v>
+      </c>
+      <c r="M110" s="17">
         <v>4.05877737510901E-4</v>
       </c>
-      <c r="N103" s="18">
+      <c r="N110" s="18">
         <v>-6.3825273073807895E-4</v>
       </c>
-      <c r="Q103" s="9">
+      <c r="O110" s="9">
         <v>-7.5758317092726197E-4</v>
       </c>
-      <c r="R103" s="19">
+      <c r="P110" s="9">
+        <v>4.9248684919581305E-4</v>
+      </c>
+      <c r="Q110" s="19">
         <v>6.2538837602212299E-4</v>
       </c>
     </row>
-    <row r="104" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B104" s="4" t="s">
+    <row r="111" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B111" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C104" s="5" t="s">
+      <c r="C111" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D104" s="15">
+      <c r="D111" s="15">
         <v>11211</v>
       </c>
-      <c r="E104" s="8">
+      <c r="E111" s="8">
         <v>273404</v>
       </c>
-      <c r="G104" s="8">
+      <c r="F111" s="8">
         <v>533590</v>
       </c>
-      <c r="H104" s="16">
+      <c r="G111" s="8">
+        <v>1387.53953230304</v>
+      </c>
+      <c r="H111" s="16">
         <v>1185.43977380672</v>
       </c>
-      <c r="I104" s="17">
+      <c r="I111" s="17">
         <v>0.52552383630994204</v>
       </c>
-      <c r="J104" s="17">
+      <c r="J111" s="17">
         <v>0.54404425518366695</v>
       </c>
-      <c r="L104" s="17">
+      <c r="K111" s="17">
         <v>0.50691029723588099</v>
       </c>
-      <c r="M104" s="17">
+      <c r="L111" s="17">
+        <v>0.50836694021032203</v>
+      </c>
+      <c r="M111" s="17">
         <v>0.50608945967661001</v>
       </c>
-      <c r="N104" s="18">
+      <c r="N111" s="18">
         <v>-1.85204188737246E-2</v>
       </c>
-      <c r="Q104" s="9">
+      <c r="O111" s="9">
         <v>1.8613539074061301E-2</v>
       </c>
-      <c r="R104" s="19">
+      <c r="P111" s="9">
+        <v>1.7156896099620601E-2</v>
+      </c>
+      <c r="Q111" s="19">
         <v>1.9434376633332601E-2</v>
       </c>
     </row>
-    <row r="105" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B105" s="4" t="s">
+    <row r="112" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B112" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C105" s="5" t="s">
+      <c r="C112" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D105" s="15">
+      <c r="D112" s="15">
         <v>10122</v>
       </c>
-      <c r="E105" s="8">
+      <c r="E112" s="8">
         <v>229136</v>
       </c>
-      <c r="G105" s="8">
+      <c r="F112" s="8">
         <v>519042</v>
       </c>
-      <c r="H105" s="16">
+      <c r="G112" s="8">
+        <v>1341.8659867281201</v>
+      </c>
+      <c r="H112" s="16">
         <v>1156.91245491627</v>
       </c>
-      <c r="I105" s="17">
+      <c r="I112" s="17">
         <v>0.47447616369005802</v>
       </c>
-      <c r="J105" s="17">
+      <c r="J112" s="17">
         <v>0.455955744816333</v>
       </c>
-      <c r="L105" s="17">
+      <c r="K112" s="17">
         <v>0.49308970276411901</v>
       </c>
-      <c r="M105" s="17">
+      <c r="L112" s="17">
+        <v>0.49163305978967797</v>
+      </c>
+      <c r="M112" s="17">
         <v>0.49391054032338999</v>
       </c>
-      <c r="N105" s="18">
+      <c r="N112" s="18">
         <v>1.85204188737246E-2</v>
       </c>
-      <c r="Q105" s="9">
+      <c r="O112" s="9">
         <v>-1.86135390740612E-2</v>
       </c>
-      <c r="R105" s="19">
+      <c r="P112" s="9">
+        <v>-1.71568960996204E-2</v>
+      </c>
+      <c r="Q112" s="19">
         <v>-1.9434376633332601E-2</v>
       </c>
     </row>
-    <row r="106" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B106" s="4" t="s">
+    <row r="113" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B113" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C106" s="5" t="s">
+      <c r="C113" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D106" s="15">
+      <c r="D113" s="15">
         <v>20695</v>
       </c>
-      <c r="E106" s="8">
+      <c r="E113" s="8">
         <v>472729</v>
       </c>
-      <c r="G106" s="8">
+      <c r="F113" s="8">
         <v>953821</v>
       </c>
-      <c r="H106" s="16">
+      <c r="G113" s="8">
+        <v>2487.9932386669002</v>
+      </c>
+      <c r="H113" s="16">
         <v>2072.4068310766302</v>
       </c>
-      <c r="I106" s="17">
+      <c r="I113" s="17">
         <v>0.97009328270754203</v>
       </c>
-      <c r="J106" s="17">
+      <c r="J113" s="17">
         <v>0.94067934890755001</v>
       </c>
-      <c r="L106" s="17">
+      <c r="K113" s="17">
         <v>0.90612958754816497</v>
       </c>
-      <c r="M106" s="17">
+      <c r="L113" s="17">
+        <v>0.91155133281552403</v>
+      </c>
+      <c r="M113" s="17">
         <v>0.88475456665476404</v>
       </c>
-      <c r="N106" s="18">
+      <c r="N113" s="18">
         <v>2.94139337999927E-2</v>
       </c>
-      <c r="Q106" s="9">
+      <c r="O113" s="9">
         <v>6.3963695159377401E-2</v>
       </c>
-      <c r="R106" s="19">
+      <c r="P113" s="9">
+        <v>5.8541949892018101E-2</v>
+      </c>
+      <c r="Q113" s="19">
         <v>8.5338716052777902E-2</v>
       </c>
     </row>
-    <row r="107" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B107" s="4" t="s">
+    <row r="114" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B114" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C107" s="5" t="s">
+      <c r="C114" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D107" s="15">
+      <c r="D114" s="15">
         <v>578</v>
       </c>
-      <c r="E107" s="8">
+      <c r="E114" s="8">
         <v>27932</v>
       </c>
-      <c r="G107" s="8">
+      <c r="F114" s="8">
         <v>98686</v>
       </c>
-      <c r="H107" s="16">
+      <c r="G114" s="8">
+        <v>235.465382625351</v>
+      </c>
+      <c r="H114" s="16">
         <v>269.167494028612</v>
       </c>
-      <c r="I107" s="17">
+      <c r="I114" s="17">
         <v>2.70941733464585E-2</v>
       </c>
-      <c r="J107" s="17">
+      <c r="J114" s="17">
         <v>5.5581645242169797E-2</v>
       </c>
-      <c r="L107" s="17">
+      <c r="K114" s="17">
         <v>9.3751662499335003E-2</v>
       </c>
-      <c r="M107" s="17">
+      <c r="L114" s="17">
+        <v>8.6269841906428196E-2</v>
+      </c>
+      <c r="M114" s="17">
         <v>0.114913329740915</v>
       </c>
-      <c r="N107" s="18">
+      <c r="N114" s="18">
         <v>-2.84874718957112E-2</v>
       </c>
-      <c r="Q107" s="9">
+      <c r="O114" s="9">
         <v>-6.6657489152876503E-2</v>
       </c>
-      <c r="R107" s="19">
+      <c r="P114" s="9">
+        <v>-5.9175668559969599E-2</v>
+      </c>
+      <c r="Q114" s="19">
         <v>-8.7819156394456394E-2</v>
       </c>
     </row>
-    <row r="108" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B108" s="4" t="s">
+    <row r="115" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B115" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C108" s="5" t="s">
+      <c r="C115" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D108" s="15">
+      <c r="D115" s="15">
         <v>60</v>
       </c>
-      <c r="E108" s="8">
+      <c r="E115" s="8">
         <v>1879</v>
       </c>
-      <c r="G108" s="8">
+      <c r="F115" s="8">
         <v>125</v>
       </c>
-      <c r="H108" s="16">
+      <c r="G115" s="8">
+        <v>5.9468977389072304</v>
+      </c>
+      <c r="H115" s="16">
         <v>0.77790361774753802</v>
       </c>
-      <c r="I108" s="17">
+      <c r="I115" s="17">
         <v>2.8125439459991599E-3</v>
       </c>
-      <c r="J108" s="17">
+      <c r="J115" s="17">
         <v>3.73900585028057E-3</v>
       </c>
-      <c r="L108" s="17">
+      <c r="K115" s="17">
         <v>1.18749952500019E-4</v>
       </c>
-      <c r="M108" s="17">
+      <c r="L115" s="17">
+        <v>2.1788252780474198E-3</v>
+      </c>
+      <c r="M115" s="17">
         <v>3.3210360432070301E-4</v>
       </c>
-      <c r="N108" s="18">
+      <c r="N115" s="18">
         <v>-9.2646190428141803E-4</v>
       </c>
-      <c r="Q108" s="9">
+      <c r="O115" s="9">
         <v>2.69379399349914E-3</v>
       </c>
-      <c r="R108" s="19">
+      <c r="P115" s="9">
+        <v>6.3371866795173604E-4</v>
+      </c>
+      <c r="Q115" s="19">
         <v>2.4804403416784498E-3</v>
       </c>
     </row>
-    <row r="109" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B109" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C109" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D109" s="15">
-        <v>20259</v>
-      </c>
-      <c r="E109" s="8">
-        <v>457981</v>
-      </c>
-      <c r="G109" s="8">
-        <v>917674</v>
-      </c>
-      <c r="I109" s="17">
-        <v>0.94965546336661499</v>
-      </c>
-      <c r="J109" s="17">
-        <v>0.911332431249254</v>
-      </c>
-      <c r="L109" s="17">
-        <v>0.87178995128401904</v>
-      </c>
-      <c r="N109" s="18">
-        <v>3.8323032117361301E-2</v>
-      </c>
-      <c r="Q109" s="9">
-        <v>7.7865512082595595E-2</v>
-      </c>
-    </row>
-    <row r="110" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B110" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C110" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D110" s="15">
-        <v>7</v>
-      </c>
-      <c r="E110" s="8">
-        <v>696</v>
-      </c>
-      <c r="I110" s="17">
-        <v>3.28130127033235E-4</v>
-      </c>
-      <c r="J110" s="17">
-        <v>1.3849643809448E-3</v>
-      </c>
-      <c r="N110" s="18">
-        <v>-1.0568342539115699E-3</v>
-      </c>
-    </row>
-    <row r="111" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B111" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C111" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D111" s="15">
-        <v>53</v>
-      </c>
-      <c r="E111" s="8">
-        <v>1816</v>
-      </c>
-      <c r="G111" s="8">
-        <v>1936</v>
-      </c>
-      <c r="I111" s="17">
-        <v>2.4844138189659198E-3</v>
-      </c>
-      <c r="J111" s="17">
-        <v>3.6136426951088501E-3</v>
-      </c>
-      <c r="L111" s="17">
-        <v>1.83919926432029E-3</v>
-      </c>
-      <c r="N111" s="18">
-        <v>-1.12922887614293E-3</v>
-      </c>
-      <c r="Q111" s="9">
-        <v>6.4521455464562703E-4</v>
-      </c>
-    </row>
-    <row r="112" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B112" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C112" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D112" s="15">
-        <v>163</v>
-      </c>
-      <c r="E112" s="8">
-        <v>5419</v>
-      </c>
-      <c r="G112" s="8">
-        <v>8068</v>
-      </c>
-      <c r="I112" s="17">
-        <v>7.6407443866310402E-3</v>
-      </c>
-      <c r="J112" s="17">
-        <v>1.0783221236120501E-2</v>
-      </c>
-      <c r="L112" s="17">
-        <v>7.6645969341612302E-3</v>
-      </c>
-      <c r="N112" s="18">
-        <v>-3.14247684948947E-3</v>
-      </c>
-      <c r="Q112" s="9">
-        <v>-2.3852547530185699E-5</v>
-      </c>
-    </row>
-    <row r="113" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B113" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D113" s="15">
-        <v>341</v>
-      </c>
-      <c r="E113" s="8">
-        <v>12540</v>
-      </c>
-      <c r="G113" s="8">
-        <v>26147</v>
-      </c>
-      <c r="I113" s="17">
-        <v>1.5984624759761899E-2</v>
-      </c>
-      <c r="J113" s="17">
-        <v>2.4953237553229601E-2</v>
-      </c>
-      <c r="L113" s="17">
-        <v>2.4839640064143999E-2</v>
-      </c>
-      <c r="N113" s="18">
-        <v>-8.9686127934677194E-3</v>
-      </c>
-      <c r="Q113" s="9">
-        <v>-8.8550153043821002E-3</v>
-      </c>
-    </row>
-    <row r="114" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B114" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C114" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D114" s="15">
-        <v>211</v>
-      </c>
-      <c r="E114" s="8">
-        <v>8099</v>
-      </c>
-      <c r="G114" s="8">
-        <v>23374</v>
-      </c>
-      <c r="I114" s="17">
-        <v>9.8907795434303707E-3</v>
-      </c>
-      <c r="J114" s="17">
-        <v>1.6116130059298801E-2</v>
-      </c>
-      <c r="L114" s="17">
-        <v>2.2205291117883601E-2</v>
-      </c>
-      <c r="N114" s="18">
-        <v>-6.2253505158684002E-3</v>
-      </c>
-      <c r="Q114" s="9">
-        <v>-1.23145115744532E-2</v>
-      </c>
-    </row>
-    <row r="115" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B115" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C115" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D115" s="15">
-        <v>118</v>
-      </c>
-      <c r="E115" s="8">
-        <v>5791</v>
-      </c>
-      <c r="G115" s="8">
-        <v>20070</v>
-      </c>
-      <c r="I115" s="17">
-        <v>5.5313364271316699E-3</v>
-      </c>
-      <c r="J115" s="17">
-        <v>1.1523460819039299E-2</v>
-      </c>
-      <c r="L115" s="17">
-        <v>1.9066492373403E-2</v>
-      </c>
-      <c r="N115" s="18">
-        <v>-5.9921243919076102E-3</v>
-      </c>
-      <c r="Q115" s="9">
-        <v>-1.35351559462714E-2</v>
-      </c>
-    </row>
-    <row r="116" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B116" s="4" t="s">
         <v>90</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D116" s="15">
-        <v>116</v>
+        <v>20259</v>
       </c>
       <c r="E116" s="8">
-        <v>5529</v>
-      </c>
-      <c r="G116" s="8">
-        <v>24023</v>
+        <v>457981</v>
+      </c>
+      <c r="F116" s="8">
+        <v>917674</v>
       </c>
       <c r="I116" s="17">
-        <v>5.4375849622650399E-3</v>
+        <v>0.94965546336661499</v>
       </c>
       <c r="J116" s="17">
-        <v>1.1002109284833E-2</v>
-      </c>
-      <c r="L116" s="17">
-        <v>2.28218408712637E-2</v>
+        <v>0.911332431249254</v>
+      </c>
+      <c r="K116" s="17">
+        <v>0.87178995128401904</v>
       </c>
       <c r="N116" s="18">
-        <v>-5.56452432256801E-3</v>
-      </c>
-      <c r="Q116" s="9">
-        <v>-1.73842559089986E-2</v>
-      </c>
-    </row>
-    <row r="117" spans="2:18" x14ac:dyDescent="0.2">
+        <v>3.8323032117361301E-2</v>
+      </c>
+      <c r="O116" s="9">
+        <v>7.7865512082595595E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B117" s="4" t="s">
         <v>90</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D117" s="15">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="E117" s="8">
-        <v>2182</v>
-      </c>
-      <c r="G117" s="8">
-        <v>9311</v>
+        <v>696</v>
       </c>
       <c r="I117" s="17">
-        <v>1.5937749027328601E-3</v>
+        <v>3.28130127033235E-4</v>
       </c>
       <c r="J117" s="17">
-        <v>4.3419429299160301E-3</v>
-      </c>
-      <c r="L117" s="17">
-        <v>8.8454464618214195E-3</v>
+        <v>1.3849643809448E-3</v>
       </c>
       <c r="N117" s="18">
-        <v>-2.7481680271831698E-3</v>
-      </c>
-      <c r="Q117" s="9">
-        <v>-7.2516715590885596E-3</v>
-      </c>
-    </row>
-    <row r="118" spans="2:18" x14ac:dyDescent="0.2">
+        <v>-1.0568342539115699E-3</v>
+      </c>
+    </row>
+    <row r="118" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B118" s="4" t="s">
         <v>90</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D118" s="15">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="E118" s="8">
-        <v>1875</v>
-      </c>
-      <c r="G118" s="8">
-        <v>10011</v>
+        <v>1816</v>
+      </c>
+      <c r="F118" s="8">
+        <v>1936</v>
       </c>
       <c r="I118" s="17">
-        <v>1.1250175783996601E-3</v>
+        <v>2.4844138189659198E-3</v>
       </c>
       <c r="J118" s="17">
-        <v>3.7310462848728502E-3</v>
-      </c>
-      <c r="L118" s="17">
-        <v>9.5104461958215192E-3</v>
+        <v>3.6136426951088501E-3</v>
+      </c>
+      <c r="K118" s="17">
+        <v>1.83919926432029E-3</v>
       </c>
       <c r="N118" s="18">
-        <v>-2.6060287064731801E-3</v>
-      </c>
-      <c r="Q118" s="9">
-        <v>-8.3854286174218605E-3</v>
-      </c>
-    </row>
-    <row r="119" spans="2:18" x14ac:dyDescent="0.2">
+        <v>-1.12922887614293E-3</v>
+      </c>
+      <c r="O118" s="9">
+        <v>6.4521455464562703E-4</v>
+      </c>
+    </row>
+    <row r="119" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B119" s="4" t="s">
         <v>90</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D119" s="15">
-        <v>7</v>
+        <v>163</v>
       </c>
       <c r="E119" s="8">
-        <v>612</v>
-      </c>
-      <c r="G119" s="8">
-        <v>8002</v>
+        <v>5419</v>
+      </c>
+      <c r="F119" s="8">
+        <v>8068</v>
       </c>
       <c r="I119" s="17">
-        <v>3.28130127033235E-4</v>
+        <v>7.6407443866310402E-3</v>
       </c>
       <c r="J119" s="17">
-        <v>1.2178135073825E-3</v>
-      </c>
-      <c r="L119" s="17">
-        <v>7.6018969592412198E-3</v>
+        <v>1.0783221236120501E-2</v>
+      </c>
+      <c r="K119" s="17">
+        <v>7.6645969341612302E-3</v>
       </c>
       <c r="N119" s="18">
-        <v>-8.8968338034926201E-4</v>
-      </c>
-      <c r="Q119" s="9">
-        <v>-7.2737668322079797E-3</v>
-      </c>
-    </row>
-    <row r="120" spans="2:18" x14ac:dyDescent="0.2">
+        <v>-3.14247684948947E-3</v>
+      </c>
+      <c r="O119" s="9">
+        <v>-2.3852547530185699E-5</v>
+      </c>
+    </row>
+    <row r="120" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B120" s="4" t="s">
         <v>90</v>
       </c>
       <c r="C120" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D120" s="15">
+        <v>341</v>
+      </c>
+      <c r="E120" s="8">
+        <v>12540</v>
+      </c>
+      <c r="F120" s="8">
+        <v>26147</v>
+      </c>
+      <c r="I120" s="17">
+        <v>1.5984624759761899E-2</v>
+      </c>
+      <c r="J120" s="17">
+        <v>2.4953237553229601E-2</v>
+      </c>
+      <c r="K120" s="17">
+        <v>2.4839640064143999E-2</v>
+      </c>
+      <c r="N120" s="18">
+        <v>-8.9686127934677194E-3</v>
+      </c>
+      <c r="O120" s="9">
+        <v>-8.8550153043821002E-3</v>
+      </c>
+    </row>
+    <row r="121" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B121" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D121" s="15">
+        <v>211</v>
+      </c>
+      <c r="E121" s="8">
+        <v>8099</v>
+      </c>
+      <c r="F121" s="8">
+        <v>23374</v>
+      </c>
+      <c r="I121" s="17">
+        <v>9.8907795434303707E-3</v>
+      </c>
+      <c r="J121" s="17">
+        <v>1.6116130059298801E-2</v>
+      </c>
+      <c r="K121" s="17">
+        <v>2.2205291117883601E-2</v>
+      </c>
+      <c r="N121" s="18">
+        <v>-6.2253505158684002E-3</v>
+      </c>
+      <c r="O121" s="9">
+        <v>-1.23145115744532E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B122" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D122" s="15">
+        <v>118</v>
+      </c>
+      <c r="E122" s="8">
+        <v>5791</v>
+      </c>
+      <c r="F122" s="8">
+        <v>20070</v>
+      </c>
+      <c r="I122" s="17">
+        <v>5.5313364271316699E-3</v>
+      </c>
+      <c r="J122" s="17">
+        <v>1.1523460819039299E-2</v>
+      </c>
+      <c r="K122" s="17">
+        <v>1.9066492373403E-2</v>
+      </c>
+      <c r="N122" s="18">
+        <v>-5.9921243919076102E-3</v>
+      </c>
+      <c r="O122" s="9">
+        <v>-1.35351559462714E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B123" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D123" s="15">
+        <v>116</v>
+      </c>
+      <c r="E123" s="8">
+        <v>5529</v>
+      </c>
+      <c r="F123" s="8">
+        <v>24023</v>
+      </c>
+      <c r="I123" s="17">
+        <v>5.4375849622650399E-3</v>
+      </c>
+      <c r="J123" s="17">
+        <v>1.1002109284833E-2</v>
+      </c>
+      <c r="K123" s="17">
+        <v>2.28218408712637E-2</v>
+      </c>
+      <c r="N123" s="18">
+        <v>-5.56452432256801E-3</v>
+      </c>
+      <c r="O123" s="9">
+        <v>-1.73842559089986E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="2:17" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B124" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="C124" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="D124" s="32">
+        <v>34</v>
+      </c>
+      <c r="E124" s="33">
+        <v>2182</v>
+      </c>
+      <c r="F124" s="33">
+        <v>9311</v>
+      </c>
+      <c r="G124" s="33"/>
+      <c r="H124" s="34"/>
+      <c r="I124" s="35">
+        <v>1.5937749027328601E-3</v>
+      </c>
+      <c r="J124" s="35">
+        <v>4.3419429299160301E-3</v>
+      </c>
+      <c r="K124" s="35">
+        <v>8.8454464618214195E-3</v>
+      </c>
+      <c r="L124" s="35"/>
+      <c r="M124" s="35"/>
+      <c r="N124" s="36">
+        <v>-2.7481680271831698E-3</v>
+      </c>
+      <c r="O124" s="37">
+        <v>-7.2516715590885596E-3</v>
+      </c>
+      <c r="P124" s="37"/>
+      <c r="Q124" s="38"/>
+    </row>
+    <row r="125" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B125" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D125" s="15">
+        <v>24</v>
+      </c>
+      <c r="E125" s="8">
+        <v>1875</v>
+      </c>
+      <c r="F125" s="8">
+        <v>10011</v>
+      </c>
+      <c r="I125" s="17">
+        <v>1.1250175783996601E-3</v>
+      </c>
+      <c r="J125" s="17">
+        <v>3.7310462848728502E-3</v>
+      </c>
+      <c r="K125" s="17">
+        <v>9.5104461958215192E-3</v>
+      </c>
+      <c r="N125" s="18">
+        <v>-2.6060287064731801E-3</v>
+      </c>
+      <c r="O125" s="9">
+        <v>-8.3854286174218605E-3</v>
+      </c>
+    </row>
+    <row r="126" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B126" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D126" s="15">
+        <v>7</v>
+      </c>
+      <c r="E126" s="8">
+        <v>612</v>
+      </c>
+      <c r="F126" s="8">
+        <v>8002</v>
+      </c>
+      <c r="I126" s="17">
+        <v>3.28130127033235E-4</v>
+      </c>
+      <c r="J126" s="17">
+        <v>1.2178135073825E-3</v>
+      </c>
+      <c r="K126" s="17">
+        <v>7.6018969592412198E-3</v>
+      </c>
+      <c r="N126" s="18">
+        <v>-8.8968338034926201E-4</v>
+      </c>
+      <c r="O126" s="9">
+        <v>-7.2737668322079797E-3</v>
+      </c>
+    </row>
+    <row r="127" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B127" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C127" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="G120" s="8">
+      <c r="F127" s="8">
         <v>4016</v>
       </c>
-      <c r="L120" s="17">
+      <c r="K127" s="17">
         <v>3.8151984739206099E-3</v>
       </c>
     </row>
-    <row r="121" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B121" s="4" t="s">
+    <row r="128" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B128" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C121" s="5" t="s">
+      <c r="C128" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D121" s="15">
+      <c r="D128" s="15">
         <v>84</v>
       </c>
-      <c r="E121" s="8">
+      <c r="E128" s="8">
         <v>2626</v>
       </c>
-      <c r="H121" s="16">
+      <c r="G128" s="8">
+        <v>13.016408610853</v>
+      </c>
+      <c r="H128" s="16">
         <v>11.6693857623707</v>
       </c>
-      <c r="I121" s="17">
+      <c r="I128" s="17">
         <v>3.9375615243988204E-3</v>
       </c>
-      <c r="J121" s="17">
+      <c r="J128" s="17">
         <v>5.2254546901739198E-3</v>
       </c>
-      <c r="M121" s="17">
+      <c r="L128" s="17">
+        <v>4.7689537227408197E-3</v>
+      </c>
+      <c r="M128" s="17">
         <v>4.9819090482103199E-3</v>
       </c>
-      <c r="N121" s="18">
+      <c r="N128" s="18">
         <v>-1.2878931657751001E-3</v>
       </c>
-      <c r="R121" s="19">
+      <c r="P128" s="9">
+        <v>-8.31392198342003E-4</v>
+      </c>
+      <c r="Q128" s="19">
         <v>-1.0443475238115E-3</v>
       </c>
     </row>
-    <row r="122" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B122" s="4" t="s">
+    <row r="129" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B129" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C122" s="5" t="s">
+      <c r="C129" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="D122" s="15">
+      <c r="D129" s="15">
         <v>7950</v>
       </c>
-      <c r="E122" s="8">
+      <c r="E129" s="8">
         <v>157438</v>
       </c>
-      <c r="H122" s="16">
+      <c r="G129" s="8">
+        <v>660.39986323664402</v>
+      </c>
+      <c r="H129" s="16">
         <v>586.77195971026902</v>
       </c>
-      <c r="I122" s="17">
+      <c r="I129" s="17">
         <v>0.372662072844888</v>
       </c>
-      <c r="J122" s="17">
+      <c r="J129" s="17">
         <v>0.313284514665499</v>
       </c>
-      <c r="M122" s="17">
+      <c r="L129" s="17">
+        <v>0.241957400112191</v>
+      </c>
+      <c r="M129" s="17">
         <v>0.25050543317738599</v>
       </c>
-      <c r="N122" s="18">
+      <c r="N129" s="18">
         <v>5.9377558179388903E-2</v>
       </c>
-      <c r="R122" s="19">
+      <c r="P129" s="9">
+        <v>0.13070467273269701</v>
+      </c>
+      <c r="Q129" s="19">
         <v>0.122156639667502</v>
       </c>
     </row>
-    <row r="123" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B123" s="4" t="s">
+    <row r="130" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B130" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C123" s="5" t="s">
+      <c r="C130" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="D123" s="15">
+      <c r="D130" s="15">
         <v>9271</v>
       </c>
-      <c r="E123" s="8">
+      <c r="E130" s="8">
         <v>214227</v>
       </c>
-      <c r="H123" s="16">
+      <c r="G130" s="8">
+        <v>1022.23577089385</v>
+      </c>
+      <c r="H130" s="16">
         <v>870.31063586946004</v>
       </c>
-      <c r="I123" s="17">
+      <c r="I130" s="17">
         <v>0.43458491538930299</v>
       </c>
-      <c r="J123" s="17">
+      <c r="J130" s="17">
         <v>0.42628845465037601</v>
       </c>
-      <c r="M123" s="17">
+      <c r="L130" s="17">
+        <v>0.37452689377455001</v>
+      </c>
+      <c r="M130" s="17">
         <v>0.37155412631683299</v>
       </c>
-      <c r="N123" s="18">
+      <c r="N130" s="18">
         <v>8.2964607389268696E-3</v>
       </c>
-      <c r="R123" s="19">
+      <c r="P130" s="9">
+        <v>6.0058021614753099E-2</v>
+      </c>
+      <c r="Q130" s="19">
         <v>6.3030789072469506E-2</v>
       </c>
     </row>
-    <row r="124" spans="2:18" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B124" s="30" t="s">
+    <row r="131" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B131" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C124" s="31" t="s">
+      <c r="C131" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="D124" s="32">
+      <c r="D131" s="15">
         <v>3990</v>
       </c>
-      <c r="E124" s="33">
+      <c r="E131" s="8">
         <v>125144</v>
       </c>
-      <c r="F124" s="33"/>
-      <c r="G124" s="33"/>
-      <c r="H124" s="34">
+      <c r="G131" s="8">
+        <v>762.43559644173604</v>
+      </c>
+      <c r="H131" s="16">
         <v>665.74685781267897</v>
       </c>
-      <c r="I124" s="35">
+      <c r="I131" s="17">
         <v>0.18703417240894399</v>
       </c>
-      <c r="J124" s="35">
+      <c r="J131" s="17">
         <v>0.249022963346201</v>
       </c>
-      <c r="K124" s="35"/>
-      <c r="L124" s="35"/>
-      <c r="M124" s="35">
+      <c r="L131" s="17">
+        <v>0.27934126721938102</v>
+      </c>
+      <c r="M131" s="17">
         <v>0.28422149736875102</v>
       </c>
-      <c r="N124" s="36">
+      <c r="N131" s="18">
         <v>-6.1988790937257399E-2</v>
       </c>
-      <c r="O124" s="37"/>
-      <c r="P124" s="37"/>
-      <c r="Q124" s="37"/>
-      <c r="R124" s="38">
+      <c r="P131" s="9">
+        <v>-9.2307094810437196E-2</v>
+      </c>
+      <c r="Q131" s="19">
         <v>-9.7187324959806601E-2</v>
       </c>
     </row>
-    <row r="125" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B125" s="4" t="s">
+    <row r="132" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B132" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="C125" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D125" s="15">
-        <v>38</v>
-      </c>
-      <c r="E125" s="8">
-        <v>3105</v>
-      </c>
-      <c r="H125" s="16">
-        <v>207.85338956821599</v>
-      </c>
-      <c r="I125" s="17">
-        <v>1.78127783246613E-3</v>
-      </c>
-      <c r="J125" s="17">
-        <v>6.1786126477494296E-3</v>
-      </c>
-      <c r="M125" s="17">
-        <v>8.8737034088819902E-2</v>
-      </c>
-      <c r="N125" s="18">
-        <v>-4.3973348152833002E-3</v>
-      </c>
-      <c r="R125" s="19">
-        <v>-8.6955756256353794E-2</v>
-      </c>
-    </row>
-    <row r="126" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B126" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C126" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D126" s="15">
-        <v>4642</v>
-      </c>
-      <c r="E126" s="8">
-        <v>101775</v>
-      </c>
-      <c r="H126" s="16">
-        <v>336.34704710924098</v>
-      </c>
-      <c r="I126" s="17">
-        <v>0.217597149955468</v>
-      </c>
-      <c r="J126" s="17">
-        <v>0.202521192342898</v>
-      </c>
-      <c r="M126" s="17">
-        <v>0.14359371019644199</v>
-      </c>
-      <c r="N126" s="18">
-        <v>1.5075957612569999E-2</v>
-      </c>
-      <c r="R126" s="19">
-        <v>7.4003439759025597E-2</v>
-      </c>
-    </row>
-    <row r="127" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B127" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C127" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D127" s="15">
-        <v>6044</v>
-      </c>
-      <c r="E127" s="8">
-        <v>115445</v>
-      </c>
-      <c r="H127" s="16">
-        <v>375.514469247455</v>
-      </c>
-      <c r="I127" s="17">
-        <v>0.28331692682698201</v>
-      </c>
-      <c r="J127" s="17">
-        <v>0.229723007123811</v>
-      </c>
-      <c r="M127" s="17">
-        <v>0.16031511599439399</v>
-      </c>
-      <c r="N127" s="18">
-        <v>5.3593919703170602E-2</v>
-      </c>
-      <c r="R127" s="19">
-        <v>0.123001810832587</v>
-      </c>
-    </row>
-    <row r="128" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B128" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C128" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="D128" s="15">
-        <v>5525</v>
-      </c>
-      <c r="E128" s="8">
-        <v>129297</v>
-      </c>
-      <c r="H128" s="16">
-        <v>633.86293724507095</v>
-      </c>
-      <c r="I128" s="17">
-        <v>0.25898842169408898</v>
-      </c>
-      <c r="J128" s="17">
-        <v>0.257286982130776</v>
-      </c>
-      <c r="M128" s="17">
-        <v>0.27060957334783098</v>
-      </c>
-      <c r="N128" s="18">
-        <v>1.70143956331331E-3</v>
-      </c>
-      <c r="R128" s="19">
-        <v>-1.16211516537423E-2</v>
-      </c>
-    </row>
-    <row r="129" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B129" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C129" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D129" s="15">
-        <v>2324</v>
-      </c>
-      <c r="E129" s="8">
-        <v>55860</v>
-      </c>
-      <c r="H129" s="16">
-        <v>297.23917144848099</v>
-      </c>
-      <c r="I129" s="17">
-        <v>0.108939202175034</v>
-      </c>
-      <c r="J129" s="17">
-        <v>0.111155330918932</v>
-      </c>
-      <c r="M129" s="17">
-        <v>0.12689772605656799</v>
-      </c>
-      <c r="N129" s="18">
-        <v>-2.21612874389784E-3</v>
-      </c>
-      <c r="R129" s="19">
-        <v>-1.7958523881533701E-2</v>
-      </c>
-    </row>
-    <row r="130" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B130" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C130" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D130" s="15">
-        <v>1785</v>
-      </c>
-      <c r="E130" s="8">
-        <v>58013</v>
-      </c>
-      <c r="H130" s="16">
-        <v>327.71786166115697</v>
-      </c>
-      <c r="I130" s="17">
-        <v>8.3673182393474904E-2</v>
-      </c>
-      <c r="J130" s="17">
-        <v>0.115439566999642</v>
-      </c>
-      <c r="M130" s="17">
-        <v>0.13990972734268201</v>
-      </c>
-      <c r="N130" s="18">
-        <v>-3.1766384606166903E-2</v>
-      </c>
-      <c r="R130" s="19">
-        <v>-5.6236544949206997E-2</v>
-      </c>
-    </row>
-    <row r="131" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B131" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C131" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D131" s="15">
-        <v>1005</v>
-      </c>
-      <c r="E131" s="8">
-        <v>40648</v>
-      </c>
-      <c r="H131" s="16">
-        <v>371.67074201158903</v>
-      </c>
-      <c r="I131" s="17">
-        <v>4.71101110954859E-2</v>
-      </c>
-      <c r="J131" s="17">
-        <v>8.0885103673339398E-2</v>
-      </c>
-      <c r="M131" s="17">
-        <v>0.15867414706208199</v>
-      </c>
-      <c r="N131" s="18">
-        <v>-3.3774992577853602E-2</v>
-      </c>
-      <c r="R131" s="19">
-        <v>-0.111564035966597</v>
-      </c>
-    </row>
-    <row r="132" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B132" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="C132" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D132" s="15">
+        <v>38</v>
+      </c>
+      <c r="E132" s="8">
+        <v>3105</v>
+      </c>
+      <c r="G132" s="8">
+        <v>271.31787984807198</v>
+      </c>
+      <c r="H132" s="16">
+        <v>207.85338956821599</v>
+      </c>
+      <c r="I132" s="17">
+        <v>1.78127783246613E-3</v>
+      </c>
+      <c r="J132" s="17">
+        <v>6.1786126477494296E-3</v>
+      </c>
+      <c r="L132" s="17">
+        <v>9.9405485171137398E-2</v>
+      </c>
+      <c r="M132" s="17">
+        <v>8.8737034088819902E-2</v>
+      </c>
+      <c r="N132" s="18">
+        <v>-4.3973348152833002E-3</v>
+      </c>
+      <c r="P132" s="9">
+        <v>-9.7624207338671304E-2</v>
+      </c>
+      <c r="Q132" s="19">
+        <v>-8.6955756256353794E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B133" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D133" s="15">
+        <v>4642</v>
+      </c>
+      <c r="E133" s="8">
+        <v>101775</v>
+      </c>
+      <c r="G133" s="8">
+        <v>474.646690158328</v>
+      </c>
+      <c r="H133" s="16">
+        <v>336.34704710924098</v>
+      </c>
+      <c r="I133" s="17">
+        <v>0.217597149955468</v>
+      </c>
+      <c r="J133" s="17">
+        <v>0.202521192342898</v>
+      </c>
+      <c r="L133" s="17">
+        <v>0.173901124933173</v>
+      </c>
+      <c r="M133" s="17">
+        <v>0.14359371019644199</v>
+      </c>
+      <c r="N133" s="18">
+        <v>1.5075957612569999E-2</v>
+      </c>
+      <c r="P133" s="9">
+        <v>4.3696025022295401E-2</v>
+      </c>
+      <c r="Q133" s="19">
+        <v>7.4003439759025597E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B134" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D134" s="15">
+        <v>6044</v>
+      </c>
+      <c r="E134" s="8">
+        <v>115445</v>
+      </c>
+      <c r="G134" s="8">
+        <v>460.32868590282902</v>
+      </c>
+      <c r="H134" s="16">
+        <v>375.514469247455</v>
+      </c>
+      <c r="I134" s="17">
+        <v>0.28331692682698201</v>
+      </c>
+      <c r="J134" s="17">
+        <v>0.229723007123811</v>
+      </c>
+      <c r="L134" s="17">
+        <v>0.16865529240456301</v>
+      </c>
+      <c r="M134" s="17">
+        <v>0.16031511599439399</v>
+      </c>
+      <c r="N134" s="18">
+        <v>5.3593919703170602E-2</v>
+      </c>
+      <c r="P134" s="9">
+        <v>0.114661634422418</v>
+      </c>
+      <c r="Q134" s="19">
+        <v>0.123001810832587</v>
+      </c>
+    </row>
+    <row r="135" spans="2:17" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B135" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C135" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="D135" s="22">
+        <v>5525</v>
+      </c>
+      <c r="E135" s="23">
+        <v>129297</v>
+      </c>
+      <c r="F135" s="23"/>
+      <c r="G135" s="23">
+        <v>691.20541346430298</v>
+      </c>
+      <c r="H135" s="24">
+        <v>633.86293724507095</v>
+      </c>
+      <c r="I135" s="25">
+        <v>0.25898842169408898</v>
+      </c>
+      <c r="J135" s="25">
+        <v>0.257286982130776</v>
+      </c>
+      <c r="K135" s="25"/>
+      <c r="L135" s="25">
+        <v>0.25324394218622998</v>
+      </c>
+      <c r="M135" s="25">
+        <v>0.27060957334783098</v>
+      </c>
+      <c r="N135" s="26">
+        <v>1.70143956331331E-3</v>
+      </c>
+      <c r="O135" s="27"/>
+      <c r="P135" s="27">
+        <v>5.7444795078591101E-3</v>
+      </c>
+      <c r="Q135" s="28">
+        <v>-1.16211516537423E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="2:17" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B136" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C136" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="D136" s="22">
+        <v>2324</v>
+      </c>
+      <c r="E136" s="23">
+        <v>55860</v>
+      </c>
+      <c r="F136" s="23"/>
+      <c r="G136" s="23">
+        <v>346.77578912954698</v>
+      </c>
+      <c r="H136" s="24">
+        <v>297.23917144848099</v>
+      </c>
+      <c r="I136" s="25">
+        <v>0.108939202175034</v>
+      </c>
+      <c r="J136" s="25">
+        <v>0.111155330918932</v>
+      </c>
+      <c r="K136" s="25"/>
+      <c r="L136" s="25">
+        <v>0.12705176519634201</v>
+      </c>
+      <c r="M136" s="25">
+        <v>0.12689772605656799</v>
+      </c>
+      <c r="N136" s="26">
+        <v>-2.21612874389784E-3</v>
+      </c>
+      <c r="O136" s="27"/>
+      <c r="P136" s="27">
+        <v>-1.81125630213082E-2</v>
+      </c>
+      <c r="Q136" s="28">
+        <v>-1.7958523881533701E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="2:17" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B137" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C137" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="D137" s="22">
+        <v>1785</v>
+      </c>
+      <c r="E137" s="23">
+        <v>58013</v>
+      </c>
+      <c r="F137" s="23"/>
+      <c r="G137" s="23">
+        <v>429.14766740327201</v>
+      </c>
+      <c r="H137" s="24">
+        <v>327.71786166115697</v>
+      </c>
+      <c r="I137" s="25">
+        <v>8.3673182393474904E-2</v>
+      </c>
+      <c r="J137" s="25">
+        <v>0.115439566999642</v>
+      </c>
+      <c r="K137" s="25"/>
+      <c r="L137" s="25">
+        <v>0.15723118620922399</v>
+      </c>
+      <c r="M137" s="25">
+        <v>0.13990972734268201</v>
+      </c>
+      <c r="N137" s="26">
+        <v>-3.1766384606166903E-2</v>
+      </c>
+      <c r="O137" s="27"/>
+      <c r="P137" s="27">
+        <v>-7.3558003815749104E-2</v>
+      </c>
+      <c r="Q137" s="28">
+        <v>-5.6236544949206997E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B138" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D138" s="15">
+        <v>1005</v>
+      </c>
+      <c r="E138" s="8">
+        <v>40648</v>
+      </c>
+      <c r="G138" s="8">
+        <v>325.47444102017698</v>
+      </c>
+      <c r="H138" s="16">
+        <v>371.67074201158903</v>
+      </c>
+      <c r="I138" s="17">
+        <v>4.71101110954859E-2</v>
+      </c>
+      <c r="J138" s="17">
+        <v>8.0885103673339398E-2</v>
+      </c>
+      <c r="L138" s="17">
+        <v>0.119247374107937</v>
+      </c>
+      <c r="M138" s="17">
+        <v>0.15867414706208199</v>
+      </c>
+      <c r="N138" s="18">
+        <v>-3.3774992577853602E-2</v>
+      </c>
+      <c r="P138" s="9">
+        <v>-7.2137263012451394E-2</v>
+      </c>
+      <c r="Q138" s="19">
+        <v>-0.111564035966597</v>
+      </c>
+    </row>
+    <row r="139" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B139" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D139" s="15">
         <v>8</v>
       </c>
-      <c r="E132" s="8">
+      <c r="E139" s="8">
         <v>1502</v>
       </c>
-      <c r="H132" s="16">
+      <c r="G139" s="8">
+        <v>1.8268319527011501</v>
+      </c>
+      <c r="H139" s="16">
         <v>0</v>
       </c>
-      <c r="I132" s="17">
+      <c r="I139" s="17">
         <v>3.75005859466554E-4</v>
       </c>
-      <c r="J132" s="17">
+      <c r="J139" s="17">
         <v>2.9888168106021401E-3</v>
       </c>
-      <c r="M132" s="17">
+      <c r="L139" s="17">
+        <v>6.6931496253059999E-4</v>
+      </c>
+      <c r="M139" s="17">
         <v>0</v>
       </c>
-      <c r="N132" s="18">
+      <c r="N139" s="18">
         <v>-2.6138109511355898E-3</v>
       </c>
-      <c r="R132" s="19">
+      <c r="P139" s="9">
+        <v>-2.9430910306404599E-4</v>
+      </c>
+      <c r="Q139" s="19">
         <v>3.75005859466554E-4</v>
       </c>
     </row>
-    <row r="133" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B133" s="4" t="s">
+    <row r="140" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B140" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C133" s="5" t="s">
+      <c r="C140" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="D133" s="15">
+      <c r="D140" s="15">
         <v>3791</v>
       </c>
-      <c r="E133" s="8">
+      <c r="E140" s="8">
         <v>75369</v>
       </c>
-      <c r="H133" s="16">
+      <c r="G140" s="8">
+        <v>700.50542664464501</v>
+      </c>
+      <c r="H140" s="16">
         <v>669.55211016657699</v>
       </c>
-      <c r="I133" s="17">
+      <c r="I140" s="17">
         <v>0.17770590165471301</v>
       </c>
-      <c r="J133" s="17">
+      <c r="J140" s="17">
         <v>0.14997612130377699</v>
       </c>
-      <c r="M133" s="17">
+      <c r="L140" s="17">
+        <v>0.25665128239841001</v>
+      </c>
+      <c r="M140" s="17">
         <v>0.28584604055539697</v>
       </c>
-      <c r="N133" s="18">
+      <c r="N140" s="18">
         <v>2.7729780350936501E-2</v>
       </c>
-      <c r="R133" s="19">
+      <c r="P140" s="9">
+        <v>-7.8945380743696905E-2</v>
+      </c>
+      <c r="Q140" s="19">
         <v>-0.108140138900683</v>
       </c>
     </row>
-    <row r="134" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B134" s="4" t="s">
+    <row r="141" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B141" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C134" s="5" t="s">
+      <c r="C141" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D134" s="15">
+      <c r="D141" s="15">
         <v>2999</v>
       </c>
-      <c r="E134" s="8">
+      <c r="E141" s="8">
         <v>61613</v>
       </c>
-      <c r="H134" s="16">
+      <c r="G141" s="8">
+        <v>434.385051647262</v>
+      </c>
+      <c r="H141" s="16">
         <v>361.79144034435598</v>
       </c>
-      <c r="I134" s="17">
+      <c r="I141" s="17">
         <v>0.14058032156752401</v>
       </c>
-      <c r="J134" s="17">
+      <c r="J141" s="17">
         <v>0.122603175866598</v>
       </c>
-      <c r="M134" s="17">
+      <c r="L141" s="17">
+        <v>0.15915005982748001</v>
+      </c>
+      <c r="M141" s="17">
         <v>0.15445646299813701</v>
       </c>
-      <c r="N134" s="18">
+      <c r="N141" s="18">
         <v>1.7977145700926799E-2</v>
       </c>
-      <c r="R134" s="19">
+      <c r="P141" s="9">
+        <v>-1.8569738259955101E-2</v>
+      </c>
+      <c r="Q141" s="19">
         <v>-1.38761414306121E-2</v>
       </c>
     </row>
-    <row r="135" spans="2:18" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B135" s="20" t="s">
+    <row r="142" spans="2:17" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B142" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="C135" s="21" t="s">
+      <c r="C142" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="D135" s="22">
+      <c r="D142" s="32">
         <v>9859</v>
       </c>
-      <c r="E135" s="23">
+      <c r="E142" s="33">
         <v>233011</v>
       </c>
-      <c r="F135" s="23"/>
-      <c r="G135" s="23"/>
-      <c r="H135" s="24">
+      <c r="F142" s="33"/>
+      <c r="G142" s="33">
+        <v>819.53672458269102</v>
+      </c>
+      <c r="H142" s="34">
         <v>727.31611300960299</v>
       </c>
-      <c r="I135" s="25">
+      <c r="I142" s="35">
         <v>0.46214784606009501</v>
       </c>
-      <c r="J135" s="25">
+      <c r="J142" s="35">
         <v>0.46366657380506998</v>
       </c>
-      <c r="K135" s="25"/>
-      <c r="L135" s="25"/>
-      <c r="M135" s="25">
+      <c r="K142" s="35"/>
+      <c r="L142" s="35">
+        <v>0.30026198704016599</v>
+      </c>
+      <c r="M142" s="35">
         <v>0.31050672229860299</v>
       </c>
-      <c r="N135" s="26">
+      <c r="N142" s="36">
         <v>-1.51872774497558E-3</v>
       </c>
-      <c r="O135" s="27"/>
-      <c r="P135" s="27"/>
-      <c r="Q135" s="27"/>
-      <c r="R135" s="28">
+      <c r="O142" s="37"/>
+      <c r="P142" s="37">
+        <v>0.161885859019929</v>
+      </c>
+      <c r="Q142" s="38">
         <v>0.151641123761492</v>
       </c>
     </row>
-    <row r="136" spans="2:18" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B136" s="20" t="s">
+    <row r="143" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B143" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C136" s="21" t="s">
+      <c r="C143" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D136" s="22">
+      <c r="D143" s="15">
         <v>4673</v>
       </c>
-      <c r="E136" s="23">
+      <c r="E143" s="8">
         <v>131222</v>
       </c>
-      <c r="F136" s="23"/>
-      <c r="G136" s="23"/>
-      <c r="H136" s="24">
+      <c r="G143" s="8">
+        <v>306.784260961695</v>
+      </c>
+      <c r="H143" s="16">
         <v>242.06707182789299</v>
       </c>
-      <c r="I136" s="25">
+      <c r="I143" s="17">
         <v>0.21905029766090101</v>
       </c>
-      <c r="J136" s="25">
+      <c r="J143" s="17">
         <v>0.26111752298324498</v>
       </c>
-      <c r="K136" s="25"/>
-      <c r="L136" s="25"/>
-      <c r="M136" s="25">
+      <c r="L143" s="17">
+        <v>0.112399663158369</v>
+      </c>
+      <c r="M143" s="17">
         <v>0.10334358294177801</v>
       </c>
-      <c r="N136" s="26">
+      <c r="N143" s="18">
         <v>-4.2067225322344103E-2</v>
       </c>
-      <c r="O136" s="27"/>
-      <c r="P136" s="27"/>
-      <c r="Q136" s="27"/>
-      <c r="R136" s="28">
+      <c r="P143" s="9">
+        <v>0.106650634502532</v>
+      </c>
+      <c r="Q143" s="19">
         <v>0.115706714719123</v>
       </c>
     </row>
-    <row r="137" spans="2:18" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B137" s="20" t="s">
+    <row r="144" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B144" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C137" s="21" t="s">
+      <c r="C144" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D137" s="22">
+      <c r="D144" s="15">
         <v>11</v>
       </c>
-      <c r="E137" s="23">
+      <c r="E144" s="8">
         <v>1325</v>
       </c>
-      <c r="F137" s="23"/>
-      <c r="G137" s="23"/>
-      <c r="H137" s="24">
+      <c r="G144" s="8">
+        <v>468.19405519486497</v>
+      </c>
+      <c r="H144" s="16">
         <v>341.62549337456397</v>
       </c>
-      <c r="I137" s="25">
+      <c r="I144" s="17">
         <v>5.15633056766512E-4</v>
       </c>
-      <c r="J137" s="25">
+      <c r="J144" s="17">
         <v>2.6366060413101399E-3</v>
       </c>
-      <c r="K137" s="25"/>
-      <c r="L137" s="25"/>
-      <c r="M137" s="25">
+      <c r="L144" s="17">
+        <v>0.171537007575575</v>
+      </c>
+      <c r="M144" s="17">
         <v>0.145847191206086</v>
       </c>
-      <c r="N137" s="26">
+      <c r="N144" s="18">
         <v>-2.1209729845436298E-3</v>
       </c>
-      <c r="O137" s="27"/>
-      <c r="P137" s="27"/>
-      <c r="Q137" s="27"/>
-      <c r="R137" s="28">
+      <c r="P144" s="9">
+        <v>-0.171021374518809</v>
+      </c>
+      <c r="Q144" s="19">
         <v>-0.145331558149319</v>
       </c>
     </row>
-    <row r="138" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B138" s="4" t="s">
+    <row r="145" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B145" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C138" s="5" t="s">
+      <c r="C145" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="D138" s="15">
+      <c r="D145" s="15">
         <v>3966</v>
       </c>
-      <c r="E138" s="8">
+      <c r="E145" s="8">
         <v>121205</v>
       </c>
-      <c r="H138" s="16">
+      <c r="G145" s="8">
+        <v>888.05894204194101</v>
+      </c>
+      <c r="H145" s="16">
         <v>615.64186330683503</v>
       </c>
-      <c r="I138" s="17">
+      <c r="I145" s="17">
         <v>0.18590915483054399</v>
       </c>
-      <c r="J138" s="17">
+      <c r="J145" s="17">
         <v>0.24118478131094001</v>
       </c>
-      <c r="M138" s="17">
+      <c r="L145" s="17">
+        <v>0.32536716726401699</v>
+      </c>
+      <c r="M145" s="17">
         <v>0.26283060923013801</v>
       </c>
-      <c r="N138" s="18">
+      <c r="N145" s="18">
         <v>-5.5275626480396203E-2</v>
       </c>
-      <c r="R138" s="19">
+      <c r="P145" s="9">
+        <v>-0.139458012433473</v>
+      </c>
+      <c r="Q145" s="19">
         <v>-7.6921454399593303E-2</v>
       </c>
     </row>
-    <row r="139" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B139" s="4" t="s">
+    <row r="146" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B146" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C139" s="5" t="s">
+      <c r="C146" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="D139" s="15">
+      <c r="D146" s="15">
         <v>17090</v>
       </c>
-      <c r="E139" s="8">
+      <c r="E146" s="8">
         <v>367891</v>
       </c>
-      <c r="H139" s="16">
+      <c r="G146" s="8">
+        <v>1837.5270246607699</v>
+      </c>
+      <c r="H146" s="16">
         <v>1725.0339174697799</v>
       </c>
-      <c r="I139" s="17">
+      <c r="I146" s="17">
         <v>0.801106267285426</v>
       </c>
-      <c r="J139" s="17">
+      <c r="J146" s="17">
         <v>0.73206311935368296</v>
       </c>
-      <c r="M139" s="17">
+      <c r="L146" s="17">
+        <v>0.67323342458581503</v>
+      </c>
+      <c r="M146" s="17">
         <v>0.73645367947511298</v>
       </c>
-      <c r="N139" s="18">
+      <c r="N146" s="18">
         <v>6.9043147931743001E-2</v>
       </c>
-      <c r="R139" s="19">
+      <c r="P146" s="9">
+        <v>0.12787284269961099</v>
+      </c>
+      <c r="Q146" s="19">
         <v>6.4652587810313702E-2</v>
       </c>
     </row>
-    <row r="140" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B140" s="4" t="s">
+    <row r="147" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B147" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C140" s="5" t="s">
+      <c r="C147" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D140" s="15">
+      <c r="D147" s="15">
         <v>277</v>
       </c>
-      <c r="E140" s="8">
+      <c r="E147" s="8">
         <v>13444</v>
       </c>
-      <c r="H140" s="16">
+      <c r="G147" s="8">
+        <v>3.8195523284462598</v>
+      </c>
+      <c r="H147" s="16">
         <v>1.6764479463795601</v>
       </c>
-      <c r="I140" s="17">
+      <c r="I147" s="17">
         <v>1.2984577884029401E-2</v>
       </c>
-      <c r="J140" s="17">
+      <c r="J147" s="17">
         <v>2.6752099335376301E-2</v>
       </c>
-      <c r="M140" s="17">
+      <c r="L147" s="17">
+        <v>1.3994081501681999E-3</v>
+      </c>
+      <c r="M147" s="17">
         <v>7.1571129474986303E-4</v>
       </c>
-      <c r="N140" s="18">
+      <c r="N147" s="18">
         <v>-1.37675214513468E-2</v>
       </c>
-      <c r="R140" s="19">
+      <c r="P147" s="9">
+        <v>1.15851697338612E-2</v>
+      </c>
+      <c r="Q147" s="19">
         <v>1.2268866589279601E-2</v>
       </c>
     </row>
-    <row r="141" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B141" s="4" t="s">
+    <row r="148" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B148" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C141" s="5" t="s">
+      <c r="C148" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="D141" s="15">
+      <c r="D148" s="15">
         <v>1756</v>
       </c>
-      <c r="E141" s="8">
+      <c r="E148" s="8">
         <v>56085</v>
       </c>
-      <c r="H141" s="16">
+      <c r="G148" s="8">
+        <v>514.40776934614496</v>
+      </c>
+      <c r="H148" s="16">
         <v>486.811168092858</v>
       </c>
-      <c r="I141" s="17">
+      <c r="I148" s="17">
         <v>8.2313786152908602E-2</v>
       </c>
-      <c r="J141" s="17">
+      <c r="J148" s="17">
         <v>0.111603056473117</v>
       </c>
-      <c r="M141" s="17">
+      <c r="L148" s="17">
+        <v>0.18846879503956601</v>
+      </c>
+      <c r="M148" s="17">
         <v>0.207830044569453</v>
       </c>
-      <c r="N141" s="18">
+      <c r="N148" s="18">
         <v>-2.9289270320207901E-2</v>
       </c>
-      <c r="R141" s="19">
+      <c r="P148" s="9">
+        <v>-0.10615500888665801</v>
+      </c>
+      <c r="Q148" s="19">
         <v>-0.12551625841654501</v>
       </c>
     </row>
-    <row r="142" spans="2:18" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B142" s="30" t="s">
+    <row r="149" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B149" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C142" s="31" t="s">
+      <c r="C149" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="D142" s="32">
+      <c r="D149" s="15">
         <v>19520</v>
       </c>
-      <c r="E142" s="33">
+      <c r="E149" s="8">
         <v>444048</v>
       </c>
-      <c r="F142" s="33"/>
-      <c r="G142" s="33"/>
-      <c r="H142" s="34">
+      <c r="H149" s="16">
         <v>1855.54106063014</v>
       </c>
-      <c r="I142" s="35">
+      <c r="I149" s="17">
         <v>0.91501429709839199</v>
       </c>
-      <c r="J142" s="35">
+      <c r="J149" s="17">
         <v>0.88360727504278302</v>
       </c>
-      <c r="K142" s="35"/>
-      <c r="L142" s="35"/>
-      <c r="M142" s="35">
+      <c r="M149" s="17">
         <v>0.79216995543054702</v>
       </c>
-      <c r="N142" s="36">
+      <c r="N149" s="18">
         <v>3.1407022055609503E-2</v>
       </c>
-      <c r="O142" s="37"/>
-      <c r="P142" s="37"/>
-      <c r="Q142" s="37"/>
-      <c r="R142" s="38">
+      <c r="Q149" s="19">
         <v>0.122844341667845</v>
       </c>
     </row>
-    <row r="143" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B143" s="4" t="s">
+    <row r="150" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B150" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C143" s="5" t="s">
+      <c r="C150" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D143" s="15">
+      <c r="D150" s="15">
         <v>57</v>
       </c>
-      <c r="E143" s="8">
+      <c r="E150" s="8">
         <v>2407</v>
       </c>
-      <c r="H143" s="16">
+      <c r="G150" s="8">
+        <v>2214.9977496850101</v>
+      </c>
+      <c r="H150" s="16">
         <v>0</v>
       </c>
-      <c r="I143" s="17">
+      <c r="I150" s="17">
         <v>2.6719167486992002E-3</v>
       </c>
-      <c r="J143" s="17">
+      <c r="J150" s="17">
         <v>4.7896684841007703E-3</v>
       </c>
-      <c r="M143" s="17">
+      <c r="L150" s="17">
+        <v>0.81153120496043396</v>
+      </c>
+      <c r="M150" s="17">
         <v>0</v>
       </c>
-      <c r="N143" s="18">
+      <c r="N150" s="18">
         <v>-2.1177517354015701E-3</v>
       </c>
-      <c r="R143" s="19">
+      <c r="P150" s="9">
+        <v>-0.80885928821173403</v>
+      </c>
+      <c r="Q150" s="19">
         <v>2.6719167486992002E-3</v>
       </c>
     </row>
-    <row r="144" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B144" s="4" t="s">
+    <row r="151" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B151" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C144" s="5" t="s">
+      <c r="C151" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="D144" s="15">
+      <c r="D151" s="15">
         <v>564</v>
       </c>
-      <c r="E144" s="8">
+      <c r="E151" s="8">
         <v>26402</v>
       </c>
-      <c r="H144" s="16">
+      <c r="G151" s="8">
+        <v>209.27971365379801</v>
+      </c>
+      <c r="H151" s="16">
         <v>204.47798784646901</v>
       </c>
-      <c r="I144" s="17">
+      <c r="I151" s="17">
         <v>2.6437913092392101E-2</v>
       </c>
-      <c r="J144" s="17">
+      <c r="J151" s="17">
         <v>5.2537111473713503E-2</v>
       </c>
-      <c r="M144" s="17">
+      <c r="L151" s="17">
+        <v>7.6675932614104603E-2</v>
+      </c>
+      <c r="M151" s="17">
         <v>8.7296003282113802E-2</v>
       </c>
-      <c r="N144" s="18">
+      <c r="N151" s="18">
         <v>-2.6099198381321499E-2</v>
       </c>
-      <c r="R144" s="19">
+      <c r="P151" s="9">
+        <v>-5.0238019521712501E-2</v>
+      </c>
+      <c r="Q151" s="19">
         <v>-6.0858090189721797E-2</v>
       </c>
     </row>
-    <row r="145" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B145" s="4" t="s">
+    <row r="152" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B152" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C145" s="5" t="s">
+      <c r="C152" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="D145" s="15">
+      <c r="D152" s="15">
         <v>20769</v>
       </c>
-      <c r="E145" s="8">
+      <c r="E152" s="8">
         <v>476138</v>
       </c>
-      <c r="H145" s="16">
+      <c r="G152" s="8">
+        <v>2518.4045017964199</v>
+      </c>
+      <c r="H152" s="16">
         <v>2136.7908719883599</v>
       </c>
-      <c r="I145" s="17">
+      <c r="I152" s="17">
         <v>0.97356208690760804</v>
       </c>
-      <c r="J145" s="17">
+      <c r="J152" s="17">
         <v>0.94746288852628602</v>
       </c>
-      <c r="M145" s="17">
+      <c r="L152" s="17">
+        <v>0.92269341592390397</v>
+      </c>
+      <c r="M152" s="17">
         <v>0.91224148349084799</v>
       </c>
-      <c r="N145" s="18">
+      <c r="N152" s="18">
         <v>2.6099198381321499E-2</v>
       </c>
-      <c r="R145" s="19">
+      <c r="P152" s="9">
+        <v>5.0868670983703602E-2</v>
+      </c>
+      <c r="Q152" s="19">
         <v>6.1320603416760398E-2</v>
       </c>
     </row>
-    <row r="146" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B146" s="4" t="s">
+    <row r="153" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B153" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C146" s="5" t="s">
+      <c r="C153" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H146" s="16">
+      <c r="G153" s="8">
+        <v>1.72130358094351</v>
+      </c>
+      <c r="H153" s="16">
         <v>1.08336888816793</v>
       </c>
-      <c r="M146" s="17">
+      <c r="L153" s="17">
+        <v>6.3065146199107699E-4</v>
+      </c>
+      <c r="M153" s="17">
         <v>4.6251322703868598E-4</v>
       </c>
     </row>
-    <row r="147" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B147" s="4" t="s">
+    <row r="154" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B154" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C147" s="5" t="s">
+      <c r="C154" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="D147" s="15">
+      <c r="D154" s="15">
         <v>1376</v>
       </c>
-      <c r="E147" s="8">
+      <c r="E154" s="8">
         <v>52979</v>
       </c>
-      <c r="I147" s="17">
+      <c r="I154" s="17">
         <v>6.4501007828247303E-2</v>
       </c>
-      <c r="J147" s="17">
+      <c r="J154" s="17">
         <v>0.105422453934015</v>
       </c>
-      <c r="N147" s="18">
+      <c r="N154" s="18">
         <v>-4.0921446105767902E-2</v>
       </c>
     </row>
-    <row r="148" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B148" s="4" t="s">
+    <row r="155" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B155" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C148" s="5" t="s">
+      <c r="C155" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="D148" s="15">
+      <c r="D155" s="15">
         <v>19957</v>
       </c>
-      <c r="E148" s="8">
+      <c r="E155" s="8">
         <v>449561</v>
       </c>
-      <c r="I148" s="17">
+      <c r="I155" s="17">
         <v>0.93549899217175303</v>
       </c>
-      <c r="J148" s="17">
+      <c r="J155" s="17">
         <v>0.89457754606598505</v>
       </c>
-      <c r="N148" s="18">
+      <c r="N155" s="18">
         <v>4.0921446105767902E-2</v>
       </c>
     </row>
-    <row r="149" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B149" s="4" t="s">
+    <row r="156" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B156" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C149" s="5" t="s">
+      <c r="C156" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="D149" s="15">
+      <c r="D156" s="15">
         <v>1376</v>
       </c>
-      <c r="E149" s="8">
+      <c r="E156" s="8">
         <v>52979</v>
       </c>
-      <c r="H149" s="16">
+      <c r="G156" s="8">
+        <v>577.81104231174299</v>
+      </c>
+      <c r="H156" s="16">
         <v>415.81782167630701</v>
       </c>
-      <c r="I149" s="17">
+      <c r="I156" s="17">
         <v>6.4501007828247303E-2</v>
       </c>
-      <c r="J149" s="17">
+      <c r="J156" s="17">
         <v>0.105422453934015</v>
       </c>
-      <c r="M149" s="17">
+      <c r="L156" s="17">
+        <v>0.21169849561850601</v>
+      </c>
+      <c r="M156" s="17">
         <v>0.17752147460034301</v>
       </c>
-      <c r="N149" s="18">
+      <c r="N156" s="18">
         <v>-4.0921446105767902E-2</v>
       </c>
-      <c r="R149" s="19">
+      <c r="P156" s="9">
+        <v>-0.14719748779025801</v>
+      </c>
+      <c r="Q156" s="19">
         <v>-0.113020466772096</v>
       </c>
     </row>
-    <row r="150" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B150" s="4" t="s">
+    <row r="157" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B157" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C150" s="5" t="s">
+      <c r="C157" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="D150" s="15">
+      <c r="D157" s="15">
         <v>6996</v>
       </c>
-      <c r="E150" s="8">
+      <c r="E157" s="8">
         <v>173071</v>
       </c>
-      <c r="H150" s="16">
+      <c r="G157" s="8">
+        <v>918.79461853027499</v>
+      </c>
+      <c r="H157" s="16">
         <v>791.02517617481794</v>
       </c>
-      <c r="I150" s="17">
+      <c r="I157" s="17">
         <v>0.327942624103502</v>
       </c>
-      <c r="J150" s="17">
+      <c r="J157" s="17">
         <v>0.34439248617025497</v>
       </c>
-      <c r="M150" s="17">
+      <c r="L157" s="17">
+        <v>0.33662810898704898</v>
+      </c>
+      <c r="M157" s="17">
         <v>0.33770547677454499</v>
       </c>
-      <c r="N150" s="18">
+      <c r="N157" s="18">
         <v>-1.6449862066753501E-2</v>
       </c>
-      <c r="R150" s="19">
+      <c r="P157" s="9">
+        <v>-8.6854848835477595E-3</v>
+      </c>
+      <c r="Q157" s="19">
         <v>-9.7628526710438791E-3</v>
       </c>
     </row>
-    <row r="151" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B151" s="4" t="s">
+    <row r="158" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B158" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C151" s="5" t="s">
+      <c r="C158" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="D151" s="15">
+      <c r="D158" s="15">
         <v>12913</v>
       </c>
-      <c r="E151" s="8">
+      <c r="E158" s="8">
         <v>273540</v>
       </c>
-      <c r="H151" s="16">
+      <c r="G158" s="8">
+        <v>1231.8745126491799</v>
+      </c>
+      <c r="H158" s="16">
         <v>1135.5092308718699</v>
       </c>
-      <c r="I151" s="17">
+      <c r="I158" s="17">
         <v>0.60530633291145197</v>
       </c>
-      <c r="J151" s="17">
+      <c r="J158" s="17">
         <v>0.54431488040752996</v>
       </c>
-      <c r="M151" s="17">
+      <c r="L158" s="17">
+        <v>0.45133436715788899</v>
+      </c>
+      <c r="M158" s="17">
         <v>0.484773048625111</v>
       </c>
-      <c r="N151" s="18">
+      <c r="N158" s="18">
         <v>6.0991452503922003E-2</v>
       </c>
-      <c r="R151" s="19">
+      <c r="P158" s="9">
+        <v>0.15397196575356301</v>
+      </c>
+      <c r="Q158" s="19">
         <v>0.120533284286341</v>
       </c>
     </row>
-    <row r="152" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B152" s="4" t="s">
+    <row r="159" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B159" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C152" s="5" t="s">
+      <c r="C159" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D152" s="15">
+      <c r="D159" s="15">
         <v>48</v>
       </c>
-      <c r="E152" s="8">
+      <c r="E159" s="8">
         <v>2950</v>
       </c>
-      <c r="H152" s="16">
+      <c r="G159" s="8">
+        <v>0.92534553996322699</v>
+      </c>
+      <c r="H159" s="16">
         <v>0</v>
       </c>
-      <c r="I152" s="17">
+      <c r="I159" s="17">
         <v>2.2500351567993201E-3</v>
       </c>
-      <c r="J152" s="17">
+      <c r="J159" s="17">
         <v>5.8701794881999402E-3</v>
       </c>
-      <c r="M152" s="17">
+      <c r="L159" s="17">
+        <v>3.3902823655595598E-4</v>
+      </c>
+      <c r="M159" s="17">
         <v>0</v>
       </c>
-      <c r="N152" s="18">
+      <c r="N159" s="18">
         <v>-3.6201443314006201E-3</v>
       </c>
-      <c r="R152" s="19">
+      <c r="P159" s="9">
+        <v>1.91100692024337E-3</v>
+      </c>
+      <c r="Q159" s="19">
         <v>2.2500351567993201E-3</v>
       </c>
-    </row>
-    <row r="153" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B153" s="4"/>
-      <c r="C153" s="5"/>
-    </row>
-    <row r="154" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B154" s="4"/>
-      <c r="C154" s="5"/>
-    </row>
-    <row r="155" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B155" s="4"/>
-      <c r="C155" s="5"/>
-    </row>
-    <row r="156" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B156" s="4"/>
-      <c r="C156" s="5"/>
-    </row>
-    <row r="157" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B157" s="4"/>
-      <c r="C157" s="5"/>
-    </row>
-    <row r="158" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B158" s="4"/>
-      <c r="C158" s="5"/>
     </row>
     <row r="163" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C163" s="1" t="s">
@@ -6582,10 +7470,10 @@
   <mergeCells count="3">
     <mergeCell ref="D2:H2"/>
     <mergeCell ref="I2:M2"/>
-    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="N2:Q2"/>
   </mergeCells>
   <conditionalFormatting sqref="I1:M1 I4:M1048576 I2">
-    <cfRule type="colorScale" priority="6">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6594,8 +7482,28 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:R2 N4:R1048576">
+  <conditionalFormatting sqref="D1:H1048576">
     <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:K3">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N1:Q2 N4:Q1048576">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="num" val="0"/>
@@ -6606,8 +7514,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:H1048576">
-    <cfRule type="colorScale" priority="4">
+  <conditionalFormatting sqref="N3:Q3">
+    <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6616,17 +7524,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:M3">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color theme="2" tint="-0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N3:R3">
+  <conditionalFormatting sqref="L3:M3">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
